--- a/Data Sheets/Generic Monitoring Data Sheets_v1.3.1.xlsx
+++ b/Data Sheets/Generic Monitoring Data Sheets_v1.3.1.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4505"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="28028"/>
   <workbookPr showInkAnnotation="0" codeName="ThisWorkbook" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="-20" yWindow="-20" windowWidth="29600" windowHeight="19660" activeTab="5"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16060" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Site-Transect Info" sheetId="29" r:id="rId1"/>
@@ -17,7 +17,7 @@
   </sheets>
   <calcPr calcId="130407" concurrentCalc="0"/>
   <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="http://schemas.microsoft.com/office/mac/excel/2008/main">
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
     </ext>
   </extLst>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="249" uniqueCount="215">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="251" uniqueCount="217">
   <si>
     <t>Collect 1 kelp of each sp. Every 4 m</t>
     <phoneticPr fontId="43" type="noConversion"/>
@@ -738,18 +738,18 @@
   <si>
     <t>Hydroids</t>
   </si>
+  <si>
+    <t>If no fish, enter 0 in total column</t>
+  </si>
+  <si>
+    <t>NO_FISH</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="41" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-  </numFmts>
-  <fonts count="55">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="55" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -1913,31 +1913,31 @@
     </border>
     <border>
       <left style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2728,24 +2728,36 @@
     <xf numFmtId="49" fontId="6" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="61" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="56" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="42" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="42" fillId="3" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="42" fillId="3" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="42" fillId="3" borderId="59" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="59" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1"/>
@@ -2755,37 +2767,25 @@
     <xf numFmtId="0" fontId="48" fillId="0" borderId="57" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="56" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="42" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="42" fillId="3" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="42" fillId="3" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="42" fillId="3" borderId="59" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="59" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -2843,6 +2843,20 @@
     <xf numFmtId="0" fontId="38" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="64" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="57" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="48" fillId="0" borderId="65" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="48" fillId="0" borderId="66" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2855,20 +2869,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="57" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="48" fillId="0" borderId="65" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="48" fillId="0" borderId="66" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="64" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="26" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2913,7 +2913,27 @@
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="52" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="67" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
@@ -2932,26 +2952,6 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" textRotation="90"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="52" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2959,16 +2959,16 @@
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="44" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="51" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="44" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -2976,7 +2976,7 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium4"/>
   <colors>
     <indexedColors>
       <rgbColor rgb="00000000"/>
@@ -3369,7 +3369,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" mc:Ignorable="mv" mc:PreserveAttributes="mv:*">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr enableFormatConditionsCalculation="0">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
@@ -3379,7 +3379,7 @@
       <selection activeCell="E14" sqref="E14:F26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="12"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="12" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="4.5" customWidth="1"/>
     <col min="2" max="2" width="14.6640625" customWidth="1"/>
@@ -3389,38 +3389,38 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" s="11" customFormat="1" ht="16" customHeight="1">
-      <c r="B1" s="358" t="s">
+      <c r="B1" s="379" t="s">
         <v>189</v>
       </c>
-      <c r="C1" s="358"/>
-      <c r="D1" s="358" t="s">
+      <c r="C1" s="379"/>
+      <c r="D1" s="379" t="s">
         <v>212</v>
       </c>
-      <c r="E1" s="358"/>
-      <c r="F1" s="358"/>
-      <c r="G1" s="363"/>
-      <c r="H1" s="364" t="s">
+      <c r="E1" s="379"/>
+      <c r="F1" s="379"/>
+      <c r="G1" s="384"/>
+      <c r="H1" s="385" t="s">
         <v>66</v>
       </c>
-      <c r="I1" s="363"/>
-      <c r="J1" s="363"/>
-      <c r="K1" s="363"/>
+      <c r="I1" s="384"/>
+      <c r="J1" s="384"/>
+      <c r="K1" s="384"/>
       <c r="L1" s="218"/>
       <c r="M1" s="218"/>
       <c r="N1" s="218"/>
       <c r="O1" s="218"/>
     </row>
     <row r="2" spans="1:15" s="11" customFormat="1" ht="16" customHeight="1">
-      <c r="B2" s="358"/>
-      <c r="C2" s="358"/>
-      <c r="D2" s="358"/>
-      <c r="E2" s="358"/>
-      <c r="F2" s="358"/>
-      <c r="G2" s="363"/>
-      <c r="H2" s="363"/>
-      <c r="I2" s="363"/>
-      <c r="J2" s="363"/>
-      <c r="K2" s="363"/>
+      <c r="B2" s="379"/>
+      <c r="C2" s="379"/>
+      <c r="D2" s="379"/>
+      <c r="E2" s="379"/>
+      <c r="F2" s="379"/>
+      <c r="G2" s="384"/>
+      <c r="H2" s="384"/>
+      <c r="I2" s="384"/>
+      <c r="J2" s="384"/>
+      <c r="K2" s="384"/>
       <c r="L2" s="218"/>
       <c r="M2" s="218"/>
       <c r="N2" s="218"/>
@@ -3458,22 +3458,22 @@
     </row>
     <row r="5" spans="1:15" s="5" customFormat="1" ht="17" thickTop="1" thickBot="1">
       <c r="B5" s="219"/>
-      <c r="C5" s="359" t="s">
+      <c r="C5" s="380" t="s">
         <v>67</v>
       </c>
-      <c r="D5" s="360"/>
-      <c r="E5" s="361" t="s">
+      <c r="D5" s="381"/>
+      <c r="E5" s="382" t="s">
         <v>68</v>
       </c>
-      <c r="F5" s="362"/>
-      <c r="G5" s="359" t="s">
+      <c r="F5" s="383"/>
+      <c r="G5" s="380" t="s">
         <v>69</v>
       </c>
-      <c r="H5" s="360"/>
-      <c r="I5" s="361" t="s">
+      <c r="H5" s="381"/>
+      <c r="I5" s="382" t="s">
         <v>70</v>
       </c>
-      <c r="J5" s="362"/>
+      <c r="J5" s="383"/>
       <c r="K5"/>
       <c r="L5"/>
       <c r="M5"/>
@@ -3483,14 +3483,14 @@
       <c r="B6" s="101" t="s">
         <v>57</v>
       </c>
-      <c r="C6" s="367"/>
-      <c r="D6" s="368"/>
-      <c r="E6" s="367"/>
-      <c r="F6" s="368"/>
-      <c r="G6" s="367"/>
-      <c r="H6" s="368"/>
-      <c r="I6" s="367"/>
-      <c r="J6" s="368"/>
+      <c r="C6" s="377"/>
+      <c r="D6" s="378"/>
+      <c r="E6" s="377"/>
+      <c r="F6" s="378"/>
+      <c r="G6" s="377"/>
+      <c r="H6" s="378"/>
+      <c r="I6" s="377"/>
+      <c r="J6" s="378"/>
       <c r="K6"/>
       <c r="L6"/>
       <c r="M6"/>
@@ -3500,14 +3500,14 @@
       <c r="B7" s="101" t="s">
         <v>58</v>
       </c>
-      <c r="C7" s="365"/>
-      <c r="D7" s="366"/>
-      <c r="E7" s="365"/>
-      <c r="F7" s="366"/>
-      <c r="G7" s="365"/>
-      <c r="H7" s="366"/>
-      <c r="I7" s="365"/>
-      <c r="J7" s="366"/>
+      <c r="C7" s="375"/>
+      <c r="D7" s="376"/>
+      <c r="E7" s="375"/>
+      <c r="F7" s="376"/>
+      <c r="G7" s="375"/>
+      <c r="H7" s="376"/>
+      <c r="I7" s="375"/>
+      <c r="J7" s="376"/>
       <c r="K7"/>
       <c r="L7"/>
       <c r="M7"/>
@@ -3517,14 +3517,14 @@
       <c r="B8" s="101" t="s">
         <v>59</v>
       </c>
-      <c r="C8" s="369"/>
-      <c r="D8" s="370"/>
-      <c r="E8" s="369"/>
-      <c r="F8" s="370"/>
-      <c r="G8" s="369"/>
-      <c r="H8" s="370"/>
-      <c r="I8" s="369"/>
-      <c r="J8" s="370"/>
+      <c r="C8" s="360"/>
+      <c r="D8" s="361"/>
+      <c r="E8" s="360"/>
+      <c r="F8" s="361"/>
+      <c r="G8" s="360"/>
+      <c r="H8" s="361"/>
+      <c r="I8" s="360"/>
+      <c r="J8" s="361"/>
       <c r="K8"/>
       <c r="L8"/>
       <c r="M8"/>
@@ -3534,14 +3534,14 @@
       <c r="B9" s="101" t="s">
         <v>60</v>
       </c>
-      <c r="C9" s="369"/>
-      <c r="D9" s="370"/>
-      <c r="E9" s="369"/>
-      <c r="F9" s="370"/>
-      <c r="G9" s="369"/>
-      <c r="H9" s="370"/>
-      <c r="I9" s="369"/>
-      <c r="J9" s="370"/>
+      <c r="C9" s="360"/>
+      <c r="D9" s="361"/>
+      <c r="E9" s="360"/>
+      <c r="F9" s="361"/>
+      <c r="G9" s="360"/>
+      <c r="H9" s="361"/>
+      <c r="I9" s="360"/>
+      <c r="J9" s="361"/>
       <c r="K9"/>
       <c r="L9"/>
       <c r="M9"/>
@@ -3551,211 +3551,211 @@
       <c r="B10" s="101" t="s">
         <v>61</v>
       </c>
-      <c r="C10" s="369"/>
-      <c r="D10" s="370"/>
-      <c r="E10" s="369"/>
-      <c r="F10" s="370"/>
-      <c r="G10" s="369"/>
-      <c r="H10" s="370"/>
-      <c r="I10" s="369"/>
-      <c r="J10" s="370"/>
+      <c r="C10" s="360"/>
+      <c r="D10" s="361"/>
+      <c r="E10" s="360"/>
+      <c r="F10" s="361"/>
+      <c r="G10" s="360"/>
+      <c r="H10" s="361"/>
+      <c r="I10" s="360"/>
+      <c r="J10" s="361"/>
     </row>
     <row r="11" spans="1:15" s="5" customFormat="1" ht="15">
       <c r="B11" s="103" t="s">
         <v>62</v>
       </c>
-      <c r="C11" s="369"/>
-      <c r="D11" s="370"/>
-      <c r="E11" s="369"/>
-      <c r="F11" s="370"/>
-      <c r="G11" s="369"/>
-      <c r="H11" s="370"/>
-      <c r="I11" s="369"/>
-      <c r="J11" s="370"/>
+      <c r="C11" s="360"/>
+      <c r="D11" s="361"/>
+      <c r="E11" s="360"/>
+      <c r="F11" s="361"/>
+      <c r="G11" s="360"/>
+      <c r="H11" s="361"/>
+      <c r="I11" s="360"/>
+      <c r="J11" s="361"/>
     </row>
     <row r="12" spans="1:15" s="5" customFormat="1" ht="15">
       <c r="B12" s="101" t="s">
         <v>63</v>
       </c>
-      <c r="C12" s="365"/>
-      <c r="D12" s="366"/>
-      <c r="E12" s="365"/>
-      <c r="F12" s="366"/>
-      <c r="G12" s="365"/>
-      <c r="H12" s="366"/>
-      <c r="I12" s="365"/>
-      <c r="J12" s="366"/>
+      <c r="C12" s="375"/>
+      <c r="D12" s="376"/>
+      <c r="E12" s="375"/>
+      <c r="F12" s="376"/>
+      <c r="G12" s="375"/>
+      <c r="H12" s="376"/>
+      <c r="I12" s="375"/>
+      <c r="J12" s="376"/>
     </row>
     <row r="13" spans="1:15" s="5" customFormat="1" ht="15">
       <c r="B13" s="101" t="s">
         <v>64</v>
       </c>
-      <c r="C13" s="369"/>
-      <c r="D13" s="370"/>
-      <c r="E13" s="369"/>
-      <c r="F13" s="370"/>
-      <c r="G13" s="369"/>
-      <c r="H13" s="370"/>
-      <c r="I13" s="369"/>
-      <c r="J13" s="370"/>
+      <c r="C13" s="360"/>
+      <c r="D13" s="361"/>
+      <c r="E13" s="360"/>
+      <c r="F13" s="361"/>
+      <c r="G13" s="360"/>
+      <c r="H13" s="361"/>
+      <c r="I13" s="360"/>
+      <c r="J13" s="361"/>
     </row>
     <row r="14" spans="1:15" s="5" customFormat="1" ht="15">
       <c r="A14" s="220"/>
-      <c r="B14" s="371" t="s">
+      <c r="B14" s="372" t="s">
         <v>65</v>
       </c>
-      <c r="C14" s="374"/>
-      <c r="D14" s="375"/>
-      <c r="E14" s="374"/>
-      <c r="F14" s="375"/>
-      <c r="G14" s="374"/>
-      <c r="H14" s="375"/>
-      <c r="I14" s="374"/>
-      <c r="J14" s="375"/>
+      <c r="C14" s="370"/>
+      <c r="D14" s="371"/>
+      <c r="E14" s="370"/>
+      <c r="F14" s="371"/>
+      <c r="G14" s="370"/>
+      <c r="H14" s="371"/>
+      <c r="I14" s="370"/>
+      <c r="J14" s="371"/>
     </row>
     <row r="15" spans="1:15" s="5" customFormat="1" ht="15">
       <c r="A15" s="220"/>
-      <c r="B15" s="372"/>
-      <c r="C15" s="376"/>
-      <c r="D15" s="377"/>
-      <c r="E15" s="376"/>
-      <c r="F15" s="377"/>
-      <c r="G15" s="376"/>
-      <c r="H15" s="377"/>
-      <c r="I15" s="376"/>
-      <c r="J15" s="377"/>
+      <c r="B15" s="373"/>
+      <c r="C15" s="364"/>
+      <c r="D15" s="363"/>
+      <c r="E15" s="364"/>
+      <c r="F15" s="363"/>
+      <c r="G15" s="364"/>
+      <c r="H15" s="363"/>
+      <c r="I15" s="364"/>
+      <c r="J15" s="363"/>
     </row>
     <row r="16" spans="1:15" s="5" customFormat="1" ht="15">
       <c r="A16" s="220"/>
-      <c r="B16" s="372"/>
-      <c r="C16" s="376"/>
-      <c r="D16" s="377"/>
-      <c r="E16" s="376"/>
-      <c r="F16" s="377"/>
-      <c r="G16" s="376"/>
-      <c r="H16" s="377"/>
-      <c r="I16" s="376"/>
-      <c r="J16" s="377"/>
+      <c r="B16" s="373"/>
+      <c r="C16" s="364"/>
+      <c r="D16" s="363"/>
+      <c r="E16" s="364"/>
+      <c r="F16" s="363"/>
+      <c r="G16" s="364"/>
+      <c r="H16" s="363"/>
+      <c r="I16" s="364"/>
+      <c r="J16" s="363"/>
     </row>
     <row r="17" spans="1:14" s="5" customFormat="1" ht="15">
       <c r="A17" s="220"/>
-      <c r="B17" s="372"/>
-      <c r="C17" s="376"/>
-      <c r="D17" s="377"/>
-      <c r="E17" s="376"/>
-      <c r="F17" s="377"/>
-      <c r="G17" s="376"/>
-      <c r="H17" s="377"/>
-      <c r="I17" s="376"/>
-      <c r="J17" s="377"/>
+      <c r="B17" s="373"/>
+      <c r="C17" s="364"/>
+      <c r="D17" s="363"/>
+      <c r="E17" s="364"/>
+      <c r="F17" s="363"/>
+      <c r="G17" s="364"/>
+      <c r="H17" s="363"/>
+      <c r="I17" s="364"/>
+      <c r="J17" s="363"/>
     </row>
     <row r="18" spans="1:14" s="5" customFormat="1" ht="15">
       <c r="A18" s="220"/>
-      <c r="B18" s="372"/>
-      <c r="C18" s="376"/>
-      <c r="D18" s="377"/>
-      <c r="E18" s="376"/>
-      <c r="F18" s="377"/>
-      <c r="G18" s="376"/>
-      <c r="H18" s="377"/>
-      <c r="I18" s="376"/>
-      <c r="J18" s="377"/>
+      <c r="B18" s="373"/>
+      <c r="C18" s="364"/>
+      <c r="D18" s="363"/>
+      <c r="E18" s="364"/>
+      <c r="F18" s="363"/>
+      <c r="G18" s="364"/>
+      <c r="H18" s="363"/>
+      <c r="I18" s="364"/>
+      <c r="J18" s="363"/>
     </row>
     <row r="19" spans="1:14" s="5" customFormat="1" ht="15">
       <c r="A19" s="220"/>
-      <c r="B19" s="372"/>
-      <c r="C19" s="376"/>
-      <c r="D19" s="377"/>
-      <c r="E19" s="376"/>
-      <c r="F19" s="377"/>
-      <c r="G19" s="376"/>
-      <c r="H19" s="377"/>
-      <c r="I19" s="376"/>
-      <c r="J19" s="377"/>
+      <c r="B19" s="373"/>
+      <c r="C19" s="364"/>
+      <c r="D19" s="363"/>
+      <c r="E19" s="364"/>
+      <c r="F19" s="363"/>
+      <c r="G19" s="364"/>
+      <c r="H19" s="363"/>
+      <c r="I19" s="364"/>
+      <c r="J19" s="363"/>
     </row>
     <row r="20" spans="1:14" s="5" customFormat="1" ht="15">
       <c r="A20" s="220"/>
-      <c r="B20" s="372"/>
-      <c r="C20" s="376"/>
-      <c r="D20" s="377"/>
-      <c r="E20" s="376"/>
-      <c r="F20" s="377"/>
-      <c r="G20" s="376"/>
-      <c r="H20" s="377"/>
-      <c r="I20" s="376"/>
-      <c r="J20" s="377"/>
+      <c r="B20" s="373"/>
+      <c r="C20" s="364"/>
+      <c r="D20" s="363"/>
+      <c r="E20" s="364"/>
+      <c r="F20" s="363"/>
+      <c r="G20" s="364"/>
+      <c r="H20" s="363"/>
+      <c r="I20" s="364"/>
+      <c r="J20" s="363"/>
     </row>
     <row r="21" spans="1:14" s="5" customFormat="1" ht="15">
       <c r="A21" s="220"/>
-      <c r="B21" s="372"/>
-      <c r="C21" s="376"/>
-      <c r="D21" s="377"/>
-      <c r="E21" s="376"/>
-      <c r="F21" s="377"/>
-      <c r="G21" s="376"/>
-      <c r="H21" s="377"/>
-      <c r="I21" s="376"/>
-      <c r="J21" s="377"/>
+      <c r="B21" s="373"/>
+      <c r="C21" s="364"/>
+      <c r="D21" s="363"/>
+      <c r="E21" s="364"/>
+      <c r="F21" s="363"/>
+      <c r="G21" s="364"/>
+      <c r="H21" s="363"/>
+      <c r="I21" s="364"/>
+      <c r="J21" s="363"/>
     </row>
     <row r="22" spans="1:14" s="5" customFormat="1" ht="15">
       <c r="A22" s="220"/>
-      <c r="B22" s="372"/>
-      <c r="C22" s="376"/>
-      <c r="D22" s="377"/>
-      <c r="E22" s="376"/>
-      <c r="F22" s="377"/>
-      <c r="G22" s="376"/>
-      <c r="H22" s="377"/>
-      <c r="I22" s="376"/>
-      <c r="J22" s="377"/>
+      <c r="B22" s="373"/>
+      <c r="C22" s="364"/>
+      <c r="D22" s="363"/>
+      <c r="E22" s="364"/>
+      <c r="F22" s="363"/>
+      <c r="G22" s="364"/>
+      <c r="H22" s="363"/>
+      <c r="I22" s="364"/>
+      <c r="J22" s="363"/>
     </row>
     <row r="23" spans="1:14" s="5" customFormat="1" ht="15">
       <c r="A23" s="220"/>
-      <c r="B23" s="372"/>
-      <c r="C23" s="376"/>
-      <c r="D23" s="377"/>
-      <c r="E23" s="376"/>
-      <c r="F23" s="377"/>
-      <c r="G23" s="376"/>
-      <c r="H23" s="377"/>
-      <c r="I23" s="376"/>
-      <c r="J23" s="377"/>
+      <c r="B23" s="373"/>
+      <c r="C23" s="364"/>
+      <c r="D23" s="363"/>
+      <c r="E23" s="364"/>
+      <c r="F23" s="363"/>
+      <c r="G23" s="364"/>
+      <c r="H23" s="363"/>
+      <c r="I23" s="364"/>
+      <c r="J23" s="363"/>
     </row>
     <row r="24" spans="1:14" s="5" customFormat="1" ht="15">
       <c r="A24" s="220"/>
-      <c r="B24" s="372"/>
-      <c r="C24" s="376"/>
-      <c r="D24" s="377"/>
-      <c r="E24" s="376"/>
-      <c r="F24" s="377"/>
-      <c r="G24" s="376"/>
-      <c r="H24" s="377"/>
-      <c r="I24" s="376"/>
-      <c r="J24" s="377"/>
+      <c r="B24" s="373"/>
+      <c r="C24" s="364"/>
+      <c r="D24" s="363"/>
+      <c r="E24" s="364"/>
+      <c r="F24" s="363"/>
+      <c r="G24" s="364"/>
+      <c r="H24" s="363"/>
+      <c r="I24" s="364"/>
+      <c r="J24" s="363"/>
     </row>
     <row r="25" spans="1:14" s="5" customFormat="1" ht="15">
       <c r="A25" s="220"/>
-      <c r="B25" s="372"/>
-      <c r="C25" s="376"/>
-      <c r="D25" s="377"/>
-      <c r="E25" s="376"/>
-      <c r="F25" s="377"/>
-      <c r="G25" s="376"/>
-      <c r="H25" s="377"/>
-      <c r="I25" s="376"/>
-      <c r="J25" s="377"/>
+      <c r="B25" s="373"/>
+      <c r="C25" s="364"/>
+      <c r="D25" s="363"/>
+      <c r="E25" s="364"/>
+      <c r="F25" s="363"/>
+      <c r="G25" s="364"/>
+      <c r="H25" s="363"/>
+      <c r="I25" s="364"/>
+      <c r="J25" s="363"/>
     </row>
     <row r="26" spans="1:14" s="5" customFormat="1" ht="16" thickBot="1">
       <c r="A26" s="220"/>
-      <c r="B26" s="373"/>
-      <c r="C26" s="378"/>
-      <c r="D26" s="379"/>
-      <c r="E26" s="378"/>
-      <c r="F26" s="379"/>
-      <c r="G26" s="378"/>
-      <c r="H26" s="379"/>
-      <c r="I26" s="378"/>
-      <c r="J26" s="379"/>
+      <c r="B26" s="374"/>
+      <c r="C26" s="365"/>
+      <c r="D26" s="359"/>
+      <c r="E26" s="365"/>
+      <c r="F26" s="359"/>
+      <c r="G26" s="365"/>
+      <c r="H26" s="359"/>
+      <c r="I26" s="365"/>
+      <c r="J26" s="359"/>
     </row>
     <row r="27" spans="1:14" s="5" customFormat="1" ht="15">
       <c r="B27"/>
@@ -3789,22 +3789,22 @@
     </row>
     <row r="29" spans="1:14" s="5" customFormat="1" ht="17" thickTop="1" thickBot="1">
       <c r="B29" s="217"/>
-      <c r="C29" s="381" t="s">
+      <c r="C29" s="366" t="s">
         <v>71</v>
       </c>
-      <c r="D29" s="382"/>
-      <c r="E29" s="383" t="s">
+      <c r="D29" s="367"/>
+      <c r="E29" s="368" t="s">
         <v>72</v>
       </c>
-      <c r="F29" s="384"/>
-      <c r="G29" s="381" t="s">
+      <c r="F29" s="369"/>
+      <c r="G29" s="366" t="s">
         <v>73</v>
       </c>
-      <c r="H29" s="382"/>
-      <c r="I29" s="381" t="s">
+      <c r="H29" s="367"/>
+      <c r="I29" s="366" t="s">
         <v>74</v>
       </c>
-      <c r="J29" s="382"/>
+      <c r="J29" s="367"/>
       <c r="K29"/>
       <c r="L29"/>
       <c r="M29"/>
@@ -3814,14 +3814,14 @@
       <c r="B30" s="103" t="s">
         <v>53</v>
       </c>
-      <c r="C30" s="369"/>
-      <c r="D30" s="370"/>
-      <c r="E30" s="369"/>
-      <c r="F30" s="370"/>
-      <c r="G30" s="369"/>
-      <c r="H30" s="370"/>
-      <c r="I30" s="369"/>
-      <c r="J30" s="370"/>
+      <c r="C30" s="360"/>
+      <c r="D30" s="361"/>
+      <c r="E30" s="360"/>
+      <c r="F30" s="361"/>
+      <c r="G30" s="360"/>
+      <c r="H30" s="361"/>
+      <c r="I30" s="360"/>
+      <c r="J30" s="361"/>
       <c r="K30"/>
       <c r="L30"/>
       <c r="M30"/>
@@ -3831,14 +3831,14 @@
       <c r="B31" s="103" t="s">
         <v>54</v>
       </c>
-      <c r="C31" s="369"/>
-      <c r="D31" s="370"/>
-      <c r="E31" s="369"/>
-      <c r="F31" s="370"/>
-      <c r="G31" s="369"/>
-      <c r="H31" s="370"/>
-      <c r="I31" s="369"/>
-      <c r="J31" s="370"/>
+      <c r="C31" s="360"/>
+      <c r="D31" s="361"/>
+      <c r="E31" s="360"/>
+      <c r="F31" s="361"/>
+      <c r="G31" s="360"/>
+      <c r="H31" s="361"/>
+      <c r="I31" s="360"/>
+      <c r="J31" s="361"/>
       <c r="K31"/>
       <c r="L31"/>
       <c r="M31"/>
@@ -3848,14 +3848,14 @@
       <c r="B32" s="103" t="s">
         <v>55</v>
       </c>
-      <c r="C32" s="369"/>
-      <c r="D32" s="370"/>
-      <c r="E32" s="369"/>
-      <c r="F32" s="370"/>
-      <c r="G32" s="369"/>
-      <c r="H32" s="370"/>
-      <c r="I32" s="369"/>
-      <c r="J32" s="370"/>
+      <c r="C32" s="360"/>
+      <c r="D32" s="361"/>
+      <c r="E32" s="360"/>
+      <c r="F32" s="361"/>
+      <c r="G32" s="360"/>
+      <c r="H32" s="361"/>
+      <c r="I32" s="360"/>
+      <c r="J32" s="361"/>
       <c r="K32"/>
       <c r="L32"/>
       <c r="M32"/>
@@ -3865,14 +3865,14 @@
       <c r="B33" s="104" t="s">
         <v>75</v>
       </c>
-      <c r="C33" s="369"/>
-      <c r="D33" s="370"/>
-      <c r="E33" s="369"/>
-      <c r="F33" s="370"/>
-      <c r="G33" s="369"/>
-      <c r="H33" s="370"/>
-      <c r="I33" s="369"/>
-      <c r="J33" s="370"/>
+      <c r="C33" s="360"/>
+      <c r="D33" s="361"/>
+      <c r="E33" s="360"/>
+      <c r="F33" s="361"/>
+      <c r="G33" s="360"/>
+      <c r="H33" s="361"/>
+      <c r="I33" s="360"/>
+      <c r="J33" s="361"/>
       <c r="K33"/>
       <c r="L33"/>
       <c r="M33"/>
@@ -3882,14 +3882,14 @@
       <c r="B34" s="103" t="s">
         <v>56</v>
       </c>
-      <c r="C34" s="385"/>
-      <c r="D34" s="379"/>
-      <c r="E34" s="385"/>
-      <c r="F34" s="379"/>
-      <c r="G34" s="385"/>
-      <c r="H34" s="379"/>
-      <c r="I34" s="385"/>
-      <c r="J34" s="379"/>
+      <c r="C34" s="358"/>
+      <c r="D34" s="359"/>
+      <c r="E34" s="358"/>
+      <c r="F34" s="359"/>
+      <c r="G34" s="358"/>
+      <c r="H34" s="359"/>
+      <c r="I34" s="358"/>
+      <c r="J34" s="359"/>
       <c r="K34"/>
       <c r="L34"/>
       <c r="M34"/>
@@ -3899,14 +3899,14 @@
       <c r="B35" s="103" t="s">
         <v>52</v>
       </c>
-      <c r="C35" s="380"/>
-      <c r="D35" s="377"/>
-      <c r="E35" s="380"/>
-      <c r="F35" s="377"/>
-      <c r="G35" s="380"/>
-      <c r="H35" s="377"/>
-      <c r="I35" s="380"/>
-      <c r="J35" s="377"/>
+      <c r="C35" s="362"/>
+      <c r="D35" s="363"/>
+      <c r="E35" s="362"/>
+      <c r="F35" s="363"/>
+      <c r="G35" s="362"/>
+      <c r="H35" s="363"/>
+      <c r="I35" s="362"/>
+      <c r="J35" s="363"/>
       <c r="K35"/>
       <c r="L35"/>
       <c r="M35"/>
@@ -3914,14 +3914,14 @@
     </row>
     <row r="36" spans="1:18" s="5" customFormat="1" ht="15">
       <c r="B36" s="103"/>
-      <c r="C36" s="376"/>
-      <c r="D36" s="377"/>
-      <c r="E36" s="376"/>
-      <c r="F36" s="377"/>
-      <c r="G36" s="376"/>
-      <c r="H36" s="377"/>
-      <c r="I36" s="376"/>
-      <c r="J36" s="377"/>
+      <c r="C36" s="364"/>
+      <c r="D36" s="363"/>
+      <c r="E36" s="364"/>
+      <c r="F36" s="363"/>
+      <c r="G36" s="364"/>
+      <c r="H36" s="363"/>
+      <c r="I36" s="364"/>
+      <c r="J36" s="363"/>
       <c r="K36"/>
       <c r="L36"/>
       <c r="M36"/>
@@ -3929,14 +3929,14 @@
     </row>
     <row r="37" spans="1:18" s="5" customFormat="1" ht="15">
       <c r="B37" s="103"/>
-      <c r="C37" s="376"/>
-      <c r="D37" s="377"/>
-      <c r="E37" s="376"/>
-      <c r="F37" s="377"/>
-      <c r="G37" s="376"/>
-      <c r="H37" s="377"/>
-      <c r="I37" s="376"/>
-      <c r="J37" s="377"/>
+      <c r="C37" s="364"/>
+      <c r="D37" s="363"/>
+      <c r="E37" s="364"/>
+      <c r="F37" s="363"/>
+      <c r="G37" s="364"/>
+      <c r="H37" s="363"/>
+      <c r="I37" s="364"/>
+      <c r="J37" s="363"/>
       <c r="K37"/>
       <c r="L37"/>
       <c r="M37"/>
@@ -3944,14 +3944,14 @@
     </row>
     <row r="38" spans="1:18" s="5" customFormat="1" ht="16" thickBot="1">
       <c r="B38" s="104"/>
-      <c r="C38" s="378"/>
-      <c r="D38" s="379"/>
-      <c r="E38" s="378"/>
-      <c r="F38" s="379"/>
-      <c r="G38" s="378"/>
-      <c r="H38" s="379"/>
-      <c r="I38" s="378"/>
-      <c r="J38" s="379"/>
+      <c r="C38" s="365"/>
+      <c r="D38" s="359"/>
+      <c r="E38" s="365"/>
+      <c r="F38" s="359"/>
+      <c r="G38" s="365"/>
+      <c r="H38" s="359"/>
+      <c r="I38" s="365"/>
+      <c r="J38" s="359"/>
       <c r="K38"/>
       <c r="L38"/>
       <c r="M38"/>
@@ -4445,22 +4445,46 @@
     <row r="83" ht="9.5" customHeight="1"/>
   </sheetData>
   <mergeCells count="72">
-    <mergeCell ref="C34:D34"/>
-    <mergeCell ref="E34:F34"/>
-    <mergeCell ref="G34:H34"/>
-    <mergeCell ref="I34:J34"/>
-    <mergeCell ref="C33:D33"/>
-    <mergeCell ref="E33:F33"/>
-    <mergeCell ref="G33:H33"/>
-    <mergeCell ref="I33:J33"/>
-    <mergeCell ref="C32:D32"/>
-    <mergeCell ref="E32:F32"/>
-    <mergeCell ref="G32:H32"/>
-    <mergeCell ref="I32:J32"/>
-    <mergeCell ref="C31:D31"/>
-    <mergeCell ref="E31:F31"/>
-    <mergeCell ref="G31:H31"/>
-    <mergeCell ref="I31:J31"/>
+    <mergeCell ref="B1:C2"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="E5:F5"/>
+    <mergeCell ref="G5:H5"/>
+    <mergeCell ref="I5:J5"/>
+    <mergeCell ref="D1:G2"/>
+    <mergeCell ref="H1:K2"/>
+    <mergeCell ref="C7:D7"/>
+    <mergeCell ref="E7:F7"/>
+    <mergeCell ref="G7:H7"/>
+    <mergeCell ref="I7:J7"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="E6:F6"/>
+    <mergeCell ref="G6:H6"/>
+    <mergeCell ref="I6:J6"/>
+    <mergeCell ref="E10:F10"/>
+    <mergeCell ref="G10:H10"/>
+    <mergeCell ref="I10:J10"/>
+    <mergeCell ref="C8:D8"/>
+    <mergeCell ref="E8:F8"/>
+    <mergeCell ref="G8:H8"/>
+    <mergeCell ref="I8:J8"/>
+    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="E9:F9"/>
+    <mergeCell ref="G9:H9"/>
+    <mergeCell ref="I9:J9"/>
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="B14:B26"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="E12:F12"/>
+    <mergeCell ref="G12:H12"/>
+    <mergeCell ref="I12:J12"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="E11:F11"/>
+    <mergeCell ref="G11:H11"/>
+    <mergeCell ref="I11:J11"/>
+    <mergeCell ref="C14:D26"/>
+    <mergeCell ref="E14:F26"/>
+    <mergeCell ref="G14:H26"/>
+    <mergeCell ref="I14:J26"/>
     <mergeCell ref="C35:D38"/>
     <mergeCell ref="E35:F38"/>
     <mergeCell ref="G35:H38"/>
@@ -4477,46 +4501,22 @@
     <mergeCell ref="E29:F29"/>
     <mergeCell ref="G29:H29"/>
     <mergeCell ref="I29:J29"/>
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="E11:F11"/>
-    <mergeCell ref="G11:H11"/>
-    <mergeCell ref="I11:J11"/>
-    <mergeCell ref="C14:D26"/>
-    <mergeCell ref="E14:F26"/>
-    <mergeCell ref="G14:H26"/>
-    <mergeCell ref="I14:J26"/>
-    <mergeCell ref="B14:B26"/>
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="E12:F12"/>
-    <mergeCell ref="G12:H12"/>
-    <mergeCell ref="I12:J12"/>
-    <mergeCell ref="E10:F10"/>
-    <mergeCell ref="G10:H10"/>
-    <mergeCell ref="I10:J10"/>
-    <mergeCell ref="C8:D8"/>
-    <mergeCell ref="E8:F8"/>
-    <mergeCell ref="G8:H8"/>
-    <mergeCell ref="I8:J8"/>
-    <mergeCell ref="C9:D9"/>
-    <mergeCell ref="E9:F9"/>
-    <mergeCell ref="G9:H9"/>
-    <mergeCell ref="I9:J9"/>
-    <mergeCell ref="C10:D10"/>
-    <mergeCell ref="C7:D7"/>
-    <mergeCell ref="E7:F7"/>
-    <mergeCell ref="G7:H7"/>
-    <mergeCell ref="I7:J7"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="E6:F6"/>
-    <mergeCell ref="G6:H6"/>
-    <mergeCell ref="I6:J6"/>
-    <mergeCell ref="B1:C2"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="E5:F5"/>
-    <mergeCell ref="G5:H5"/>
-    <mergeCell ref="I5:J5"/>
-    <mergeCell ref="D1:G2"/>
-    <mergeCell ref="H1:K2"/>
+    <mergeCell ref="C32:D32"/>
+    <mergeCell ref="E32:F32"/>
+    <mergeCell ref="G32:H32"/>
+    <mergeCell ref="I32:J32"/>
+    <mergeCell ref="C31:D31"/>
+    <mergeCell ref="E31:F31"/>
+    <mergeCell ref="G31:H31"/>
+    <mergeCell ref="I31:J31"/>
+    <mergeCell ref="C34:D34"/>
+    <mergeCell ref="E34:F34"/>
+    <mergeCell ref="G34:H34"/>
+    <mergeCell ref="I34:J34"/>
+    <mergeCell ref="C33:D33"/>
+    <mergeCell ref="E33:F33"/>
+    <mergeCell ref="G33:H33"/>
+    <mergeCell ref="I33:J33"/>
   </mergeCells>
   <phoneticPr fontId="43" type="noConversion"/>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
@@ -4527,7 +4527,7 @@
     <oddFooter>&amp;L&amp;"Helvetica,Regular"&amp;12Data entry by: ____________________x000D_Date entered: ____________________&amp;C&amp;"Helvetica,Regular"&amp;12Checked by: ______________________x000D_Date checked: ___________________&amp;R&amp;"Arial,Italic"&amp;6Updated &amp;D</oddFooter>
   </headerFooter>
   <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="http://schemas.microsoft.com/office/mac/excel/2008/main">
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="1" OnePage="0" WScale="0"/>
     </ext>
   </extLst>
@@ -4535,7 +4535,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" mc:Ignorable="mv" mc:PreserveAttributes="mv:*">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1" enableFormatConditionsCalculation="0"/>
   <dimension ref="A1:CX107"/>
   <sheetViews>
@@ -4543,7 +4543,7 @@
       <selection activeCell="M54" sqref="M54"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="1.5" defaultRowHeight="7.5" customHeight="1"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="1.5" defaultRowHeight="7.5" customHeight="1" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="3.1640625" style="32" customWidth="1"/>
     <col min="2" max="6" width="1.5" style="34"/>
@@ -10741,7 +10741,7 @@
     <oddFooter>&amp;L&amp;"Helvetica,Regular"_x000D_Data entry by: ____________________x000D_Date entered: ____________________&amp;C&amp;"Helvetica,Regular"Checked by: ______________________x000D_Date checked: ___________________&amp;R&amp;8Updated &amp;D</oddFooter>
   </headerFooter>
   <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="http://schemas.microsoft.com/office/mac/excel/2008/main">
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="1" OnePage="0" WScale="0"/>
     </ext>
   </extLst>
@@ -10749,7 +10749,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" mc:Ignorable="mv" mc:PreserveAttributes="mv:*">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet4" enableFormatConditionsCalculation="0">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
@@ -10759,7 +10759,7 @@
       <selection activeCell="J57" sqref="J57:L62"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="12"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="12" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="4.5" customWidth="1"/>
     <col min="2" max="2" width="12.33203125" customWidth="1"/>
@@ -10768,42 +10768,42 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:15" s="11" customFormat="1" ht="16" customHeight="1">
-      <c r="B1" s="358" t="s">
+      <c r="B1" s="379" t="s">
         <v>38</v>
       </c>
-      <c r="C1" s="358"/>
-      <c r="D1" s="358" t="s">
+      <c r="C1" s="379"/>
+      <c r="D1" s="379" t="s">
         <v>7</v>
       </c>
-      <c r="E1" s="358"/>
-      <c r="F1" s="358"/>
-      <c r="G1" s="416" t="s">
+      <c r="E1" s="379"/>
+      <c r="F1" s="379"/>
+      <c r="G1" s="405" t="s">
         <v>205</v>
       </c>
-      <c r="H1" s="416"/>
-      <c r="I1" s="416"/>
-      <c r="J1" s="358" t="s">
+      <c r="H1" s="405"/>
+      <c r="I1" s="405"/>
+      <c r="J1" s="379" t="s">
         <v>6</v>
       </c>
-      <c r="K1" s="358"/>
-      <c r="L1" s="358"/>
-      <c r="M1" s="358"/>
+      <c r="K1" s="379"/>
+      <c r="L1" s="379"/>
+      <c r="M1" s="379"/>
       <c r="N1" s="98"/>
       <c r="O1" s="122"/>
     </row>
     <row r="2" spans="2:15" s="11" customFormat="1" ht="16" customHeight="1">
-      <c r="B2" s="358"/>
-      <c r="C2" s="358"/>
-      <c r="D2" s="358"/>
-      <c r="E2" s="358"/>
-      <c r="F2" s="358"/>
-      <c r="G2" s="416"/>
-      <c r="H2" s="416"/>
-      <c r="I2" s="416"/>
-      <c r="J2" s="358"/>
-      <c r="K2" s="358"/>
-      <c r="L2" s="358"/>
-      <c r="M2" s="358"/>
+      <c r="B2" s="379"/>
+      <c r="C2" s="379"/>
+      <c r="D2" s="379"/>
+      <c r="E2" s="379"/>
+      <c r="F2" s="379"/>
+      <c r="G2" s="405"/>
+      <c r="H2" s="405"/>
+      <c r="I2" s="405"/>
+      <c r="J2" s="379"/>
+      <c r="K2" s="379"/>
+      <c r="L2" s="379"/>
+      <c r="M2" s="379"/>
       <c r="N2" s="98"/>
       <c r="O2" s="122"/>
     </row>
@@ -10844,30 +10844,30 @@
     </row>
     <row r="5" spans="2:15" s="5" customFormat="1" ht="15.75" customHeight="1" thickTop="1" thickBot="1">
       <c r="B5" s="195"/>
-      <c r="C5" s="405" t="s">
+      <c r="C5" s="413" t="s">
         <v>207</v>
       </c>
-      <c r="D5" s="406"/>
-      <c r="E5" s="407" t="s">
+      <c r="D5" s="414"/>
+      <c r="E5" s="415" t="s">
         <v>208</v>
       </c>
-      <c r="F5" s="408"/>
-      <c r="G5" s="405" t="s">
+      <c r="F5" s="416"/>
+      <c r="G5" s="413" t="s">
         <v>209</v>
       </c>
-      <c r="H5" s="406"/>
-      <c r="I5" s="407" t="s">
+      <c r="H5" s="414"/>
+      <c r="I5" s="415" t="s">
         <v>210</v>
       </c>
-      <c r="J5" s="408"/>
-      <c r="K5" s="405" t="s">
+      <c r="J5" s="416"/>
+      <c r="K5" s="413" t="s">
         <v>211</v>
       </c>
-      <c r="L5" s="406"/>
-      <c r="M5" s="407" t="s">
+      <c r="L5" s="414"/>
+      <c r="M5" s="415" t="s">
         <v>5</v>
       </c>
-      <c r="N5" s="408"/>
+      <c r="N5" s="416"/>
     </row>
     <row r="6" spans="2:15" s="5" customFormat="1" ht="13.5" customHeight="1" thickBot="1">
       <c r="B6" s="177" t="s">
@@ -10900,453 +10900,453 @@
     </row>
     <row r="7" spans="2:15" s="5" customFormat="1" ht="12.75" customHeight="1">
       <c r="B7" s="171"/>
-      <c r="C7" s="409"/>
-      <c r="D7" s="410"/>
-      <c r="E7" s="409"/>
-      <c r="F7" s="410"/>
-      <c r="G7" s="409"/>
-      <c r="H7" s="410"/>
-      <c r="I7" s="409"/>
-      <c r="J7" s="410"/>
-      <c r="K7" s="409"/>
-      <c r="L7" s="410"/>
-      <c r="M7" s="409"/>
-      <c r="N7" s="410"/>
+      <c r="C7" s="408"/>
+      <c r="D7" s="409"/>
+      <c r="E7" s="408"/>
+      <c r="F7" s="409"/>
+      <c r="G7" s="408"/>
+      <c r="H7" s="409"/>
+      <c r="I7" s="408"/>
+      <c r="J7" s="409"/>
+      <c r="K7" s="408"/>
+      <c r="L7" s="409"/>
+      <c r="M7" s="408"/>
+      <c r="N7" s="409"/>
     </row>
     <row r="8" spans="2:15" s="5" customFormat="1" ht="12.75" customHeight="1">
       <c r="B8" s="171"/>
-      <c r="C8" s="369"/>
-      <c r="D8" s="370"/>
-      <c r="E8" s="369"/>
-      <c r="F8" s="370"/>
-      <c r="G8" s="369"/>
-      <c r="H8" s="370"/>
-      <c r="I8" s="369"/>
-      <c r="J8" s="370"/>
-      <c r="K8" s="369"/>
-      <c r="L8" s="370"/>
-      <c r="M8" s="369"/>
-      <c r="N8" s="370"/>
+      <c r="C8" s="360"/>
+      <c r="D8" s="361"/>
+      <c r="E8" s="360"/>
+      <c r="F8" s="361"/>
+      <c r="G8" s="360"/>
+      <c r="H8" s="361"/>
+      <c r="I8" s="360"/>
+      <c r="J8" s="361"/>
+      <c r="K8" s="360"/>
+      <c r="L8" s="361"/>
+      <c r="M8" s="360"/>
+      <c r="N8" s="361"/>
     </row>
     <row r="9" spans="2:15" s="5" customFormat="1" ht="12.75" customHeight="1">
       <c r="B9" s="171"/>
-      <c r="C9" s="369"/>
-      <c r="D9" s="370"/>
-      <c r="E9" s="369"/>
-      <c r="F9" s="370"/>
-      <c r="G9" s="369"/>
-      <c r="H9" s="370"/>
-      <c r="I9" s="369"/>
-      <c r="J9" s="370"/>
-      <c r="K9" s="369"/>
-      <c r="L9" s="370"/>
-      <c r="M9" s="369"/>
-      <c r="N9" s="370"/>
+      <c r="C9" s="360"/>
+      <c r="D9" s="361"/>
+      <c r="E9" s="360"/>
+      <c r="F9" s="361"/>
+      <c r="G9" s="360"/>
+      <c r="H9" s="361"/>
+      <c r="I9" s="360"/>
+      <c r="J9" s="361"/>
+      <c r="K9" s="360"/>
+      <c r="L9" s="361"/>
+      <c r="M9" s="360"/>
+      <c r="N9" s="361"/>
     </row>
     <row r="10" spans="2:15" s="5" customFormat="1" ht="12.75" customHeight="1">
       <c r="B10" s="101"/>
-      <c r="C10" s="369"/>
-      <c r="D10" s="370"/>
-      <c r="E10" s="369"/>
-      <c r="F10" s="370"/>
-      <c r="G10" s="369"/>
-      <c r="H10" s="370"/>
-      <c r="I10" s="369"/>
-      <c r="J10" s="370"/>
-      <c r="K10" s="369"/>
-      <c r="L10" s="370"/>
-      <c r="M10" s="369"/>
-      <c r="N10" s="370"/>
+      <c r="C10" s="360"/>
+      <c r="D10" s="361"/>
+      <c r="E10" s="360"/>
+      <c r="F10" s="361"/>
+      <c r="G10" s="360"/>
+      <c r="H10" s="361"/>
+      <c r="I10" s="360"/>
+      <c r="J10" s="361"/>
+      <c r="K10" s="360"/>
+      <c r="L10" s="361"/>
+      <c r="M10" s="360"/>
+      <c r="N10" s="361"/>
     </row>
     <row r="11" spans="2:15" s="5" customFormat="1" ht="12.75" customHeight="1" thickBot="1">
       <c r="B11" s="104"/>
-      <c r="C11" s="413"/>
-      <c r="D11" s="414"/>
-      <c r="E11" s="413"/>
-      <c r="F11" s="414"/>
-      <c r="G11" s="413"/>
-      <c r="H11" s="414"/>
-      <c r="I11" s="413"/>
-      <c r="J11" s="414"/>
-      <c r="K11" s="413"/>
-      <c r="L11" s="414"/>
-      <c r="M11" s="413"/>
-      <c r="N11" s="414"/>
+      <c r="C11" s="406"/>
+      <c r="D11" s="407"/>
+      <c r="E11" s="406"/>
+      <c r="F11" s="407"/>
+      <c r="G11" s="406"/>
+      <c r="H11" s="407"/>
+      <c r="I11" s="406"/>
+      <c r="J11" s="407"/>
+      <c r="K11" s="406"/>
+      <c r="L11" s="407"/>
+      <c r="M11" s="406"/>
+      <c r="N11" s="407"/>
     </row>
     <row r="12" spans="2:15" s="5" customFormat="1" ht="12.75" customHeight="1">
       <c r="B12" s="103"/>
-      <c r="C12" s="409"/>
-      <c r="D12" s="410"/>
-      <c r="E12" s="409"/>
-      <c r="F12" s="410"/>
-      <c r="G12" s="409"/>
-      <c r="H12" s="410"/>
-      <c r="I12" s="409"/>
-      <c r="J12" s="410"/>
-      <c r="K12" s="409"/>
-      <c r="L12" s="410"/>
-      <c r="M12" s="409"/>
-      <c r="N12" s="410"/>
+      <c r="C12" s="408"/>
+      <c r="D12" s="409"/>
+      <c r="E12" s="408"/>
+      <c r="F12" s="409"/>
+      <c r="G12" s="408"/>
+      <c r="H12" s="409"/>
+      <c r="I12" s="408"/>
+      <c r="J12" s="409"/>
+      <c r="K12" s="408"/>
+      <c r="L12" s="409"/>
+      <c r="M12" s="408"/>
+      <c r="N12" s="409"/>
     </row>
     <row r="13" spans="2:15" s="5" customFormat="1" ht="12.75" customHeight="1">
       <c r="B13" s="101"/>
-      <c r="C13" s="369"/>
-      <c r="D13" s="370"/>
-      <c r="E13" s="369"/>
-      <c r="F13" s="370"/>
-      <c r="G13" s="369"/>
-      <c r="H13" s="370"/>
-      <c r="I13" s="369"/>
-      <c r="J13" s="370"/>
-      <c r="K13" s="369"/>
-      <c r="L13" s="370"/>
-      <c r="M13" s="369"/>
-      <c r="N13" s="370"/>
+      <c r="C13" s="360"/>
+      <c r="D13" s="361"/>
+      <c r="E13" s="360"/>
+      <c r="F13" s="361"/>
+      <c r="G13" s="360"/>
+      <c r="H13" s="361"/>
+      <c r="I13" s="360"/>
+      <c r="J13" s="361"/>
+      <c r="K13" s="360"/>
+      <c r="L13" s="361"/>
+      <c r="M13" s="360"/>
+      <c r="N13" s="361"/>
     </row>
     <row r="14" spans="2:15" s="5" customFormat="1" ht="12.75" customHeight="1">
       <c r="B14" s="101"/>
-      <c r="C14" s="369"/>
-      <c r="D14" s="370"/>
-      <c r="E14" s="369"/>
-      <c r="F14" s="370"/>
-      <c r="G14" s="369"/>
-      <c r="H14" s="370"/>
-      <c r="I14" s="369"/>
-      <c r="J14" s="370"/>
-      <c r="K14" s="369"/>
-      <c r="L14" s="370"/>
-      <c r="M14" s="369"/>
-      <c r="N14" s="370"/>
+      <c r="C14" s="360"/>
+      <c r="D14" s="361"/>
+      <c r="E14" s="360"/>
+      <c r="F14" s="361"/>
+      <c r="G14" s="360"/>
+      <c r="H14" s="361"/>
+      <c r="I14" s="360"/>
+      <c r="J14" s="361"/>
+      <c r="K14" s="360"/>
+      <c r="L14" s="361"/>
+      <c r="M14" s="360"/>
+      <c r="N14" s="361"/>
     </row>
     <row r="15" spans="2:15" s="5" customFormat="1" ht="12.75" customHeight="1">
       <c r="B15" s="101"/>
-      <c r="C15" s="369"/>
-      <c r="D15" s="370"/>
-      <c r="E15" s="369"/>
-      <c r="F15" s="370"/>
-      <c r="G15" s="369"/>
-      <c r="H15" s="370"/>
-      <c r="I15" s="369"/>
-      <c r="J15" s="370"/>
-      <c r="K15" s="369"/>
-      <c r="L15" s="370"/>
-      <c r="M15" s="369"/>
-      <c r="N15" s="370"/>
+      <c r="C15" s="360"/>
+      <c r="D15" s="361"/>
+      <c r="E15" s="360"/>
+      <c r="F15" s="361"/>
+      <c r="G15" s="360"/>
+      <c r="H15" s="361"/>
+      <c r="I15" s="360"/>
+      <c r="J15" s="361"/>
+      <c r="K15" s="360"/>
+      <c r="L15" s="361"/>
+      <c r="M15" s="360"/>
+      <c r="N15" s="361"/>
     </row>
     <row r="16" spans="2:15" s="5" customFormat="1" ht="12.75" customHeight="1" thickBot="1">
       <c r="B16" s="104"/>
-      <c r="C16" s="413"/>
-      <c r="D16" s="414"/>
-      <c r="E16" s="413"/>
-      <c r="F16" s="414"/>
-      <c r="G16" s="413"/>
-      <c r="H16" s="414"/>
-      <c r="I16" s="413"/>
-      <c r="J16" s="414"/>
-      <c r="K16" s="413"/>
-      <c r="L16" s="414"/>
-      <c r="M16" s="413"/>
-      <c r="N16" s="414"/>
+      <c r="C16" s="406"/>
+      <c r="D16" s="407"/>
+      <c r="E16" s="406"/>
+      <c r="F16" s="407"/>
+      <c r="G16" s="406"/>
+      <c r="H16" s="407"/>
+      <c r="I16" s="406"/>
+      <c r="J16" s="407"/>
+      <c r="K16" s="406"/>
+      <c r="L16" s="407"/>
+      <c r="M16" s="406"/>
+      <c r="N16" s="407"/>
     </row>
     <row r="17" spans="2:14" s="5" customFormat="1" ht="12.75" customHeight="1">
       <c r="B17" s="103"/>
-      <c r="C17" s="409"/>
-      <c r="D17" s="410"/>
-      <c r="E17" s="409"/>
-      <c r="F17" s="410"/>
-      <c r="G17" s="409"/>
-      <c r="H17" s="410"/>
-      <c r="I17" s="409"/>
-      <c r="J17" s="410"/>
-      <c r="K17" s="409"/>
-      <c r="L17" s="410"/>
-      <c r="M17" s="409"/>
-      <c r="N17" s="410"/>
+      <c r="C17" s="408"/>
+      <c r="D17" s="409"/>
+      <c r="E17" s="408"/>
+      <c r="F17" s="409"/>
+      <c r="G17" s="408"/>
+      <c r="H17" s="409"/>
+      <c r="I17" s="408"/>
+      <c r="J17" s="409"/>
+      <c r="K17" s="408"/>
+      <c r="L17" s="409"/>
+      <c r="M17" s="408"/>
+      <c r="N17" s="409"/>
     </row>
     <row r="18" spans="2:14" s="5" customFormat="1" ht="12.75" customHeight="1">
       <c r="B18" s="101"/>
-      <c r="C18" s="369"/>
-      <c r="D18" s="370"/>
-      <c r="E18" s="369"/>
-      <c r="F18" s="370"/>
-      <c r="G18" s="369"/>
-      <c r="H18" s="370"/>
-      <c r="I18" s="369"/>
-      <c r="J18" s="370"/>
-      <c r="K18" s="369"/>
-      <c r="L18" s="370"/>
-      <c r="M18" s="369"/>
-      <c r="N18" s="370"/>
+      <c r="C18" s="360"/>
+      <c r="D18" s="361"/>
+      <c r="E18" s="360"/>
+      <c r="F18" s="361"/>
+      <c r="G18" s="360"/>
+      <c r="H18" s="361"/>
+      <c r="I18" s="360"/>
+      <c r="J18" s="361"/>
+      <c r="K18" s="360"/>
+      <c r="L18" s="361"/>
+      <c r="M18" s="360"/>
+      <c r="N18" s="361"/>
     </row>
     <row r="19" spans="2:14" s="5" customFormat="1" ht="12.75" customHeight="1">
       <c r="B19" s="101"/>
-      <c r="C19" s="369"/>
-      <c r="D19" s="370"/>
-      <c r="E19" s="369"/>
-      <c r="F19" s="370"/>
-      <c r="G19" s="369"/>
-      <c r="H19" s="370"/>
-      <c r="I19" s="369"/>
-      <c r="J19" s="370"/>
-      <c r="K19" s="369"/>
-      <c r="L19" s="370"/>
-      <c r="M19" s="369"/>
-      <c r="N19" s="370"/>
+      <c r="C19" s="360"/>
+      <c r="D19" s="361"/>
+      <c r="E19" s="360"/>
+      <c r="F19" s="361"/>
+      <c r="G19" s="360"/>
+      <c r="H19" s="361"/>
+      <c r="I19" s="360"/>
+      <c r="J19" s="361"/>
+      <c r="K19" s="360"/>
+      <c r="L19" s="361"/>
+      <c r="M19" s="360"/>
+      <c r="N19" s="361"/>
     </row>
     <row r="20" spans="2:14" s="5" customFormat="1" ht="12.75" customHeight="1">
       <c r="B20" s="101"/>
-      <c r="C20" s="369"/>
-      <c r="D20" s="370"/>
-      <c r="E20" s="369"/>
-      <c r="F20" s="370"/>
-      <c r="G20" s="369"/>
-      <c r="H20" s="370"/>
-      <c r="I20" s="369"/>
-      <c r="J20" s="370"/>
-      <c r="K20" s="369"/>
-      <c r="L20" s="370"/>
-      <c r="M20" s="369"/>
-      <c r="N20" s="370"/>
+      <c r="C20" s="360"/>
+      <c r="D20" s="361"/>
+      <c r="E20" s="360"/>
+      <c r="F20" s="361"/>
+      <c r="G20" s="360"/>
+      <c r="H20" s="361"/>
+      <c r="I20" s="360"/>
+      <c r="J20" s="361"/>
+      <c r="K20" s="360"/>
+      <c r="L20" s="361"/>
+      <c r="M20" s="360"/>
+      <c r="N20" s="361"/>
     </row>
     <row r="21" spans="2:14" s="5" customFormat="1" ht="12.75" customHeight="1" thickBot="1">
       <c r="B21" s="104"/>
-      <c r="C21" s="413"/>
-      <c r="D21" s="414"/>
-      <c r="E21" s="413"/>
-      <c r="F21" s="414"/>
-      <c r="G21" s="413"/>
-      <c r="H21" s="414"/>
-      <c r="I21" s="413"/>
-      <c r="J21" s="414"/>
-      <c r="K21" s="413"/>
-      <c r="L21" s="414"/>
-      <c r="M21" s="413"/>
-      <c r="N21" s="414"/>
+      <c r="C21" s="406"/>
+      <c r="D21" s="407"/>
+      <c r="E21" s="406"/>
+      <c r="F21" s="407"/>
+      <c r="G21" s="406"/>
+      <c r="H21" s="407"/>
+      <c r="I21" s="406"/>
+      <c r="J21" s="407"/>
+      <c r="K21" s="406"/>
+      <c r="L21" s="407"/>
+      <c r="M21" s="406"/>
+      <c r="N21" s="407"/>
     </row>
     <row r="22" spans="2:14" s="5" customFormat="1" ht="12.75" customHeight="1">
       <c r="B22" s="103"/>
-      <c r="C22" s="409"/>
-      <c r="D22" s="410"/>
-      <c r="E22" s="409"/>
-      <c r="F22" s="410"/>
-      <c r="G22" s="409"/>
-      <c r="H22" s="410"/>
-      <c r="I22" s="409"/>
-      <c r="J22" s="410"/>
-      <c r="K22" s="409"/>
-      <c r="L22" s="410"/>
-      <c r="M22" s="409"/>
-      <c r="N22" s="410"/>
+      <c r="C22" s="408"/>
+      <c r="D22" s="409"/>
+      <c r="E22" s="408"/>
+      <c r="F22" s="409"/>
+      <c r="G22" s="408"/>
+      <c r="H22" s="409"/>
+      <c r="I22" s="408"/>
+      <c r="J22" s="409"/>
+      <c r="K22" s="408"/>
+      <c r="L22" s="409"/>
+      <c r="M22" s="408"/>
+      <c r="N22" s="409"/>
     </row>
     <row r="23" spans="2:14" s="5" customFormat="1" ht="12.75" customHeight="1">
       <c r="B23" s="101"/>
-      <c r="C23" s="369"/>
-      <c r="D23" s="370"/>
-      <c r="E23" s="369"/>
-      <c r="F23" s="370"/>
-      <c r="G23" s="369"/>
-      <c r="H23" s="370"/>
-      <c r="I23" s="369"/>
-      <c r="J23" s="370"/>
-      <c r="K23" s="369"/>
-      <c r="L23" s="370"/>
-      <c r="M23" s="369"/>
-      <c r="N23" s="370"/>
+      <c r="C23" s="360"/>
+      <c r="D23" s="361"/>
+      <c r="E23" s="360"/>
+      <c r="F23" s="361"/>
+      <c r="G23" s="360"/>
+      <c r="H23" s="361"/>
+      <c r="I23" s="360"/>
+      <c r="J23" s="361"/>
+      <c r="K23" s="360"/>
+      <c r="L23" s="361"/>
+      <c r="M23" s="360"/>
+      <c r="N23" s="361"/>
     </row>
     <row r="24" spans="2:14" s="5" customFormat="1" ht="12.75" customHeight="1">
       <c r="B24" s="101"/>
-      <c r="C24" s="369"/>
-      <c r="D24" s="370"/>
-      <c r="E24" s="369"/>
-      <c r="F24" s="370"/>
-      <c r="G24" s="369"/>
-      <c r="H24" s="370"/>
-      <c r="I24" s="369"/>
-      <c r="J24" s="370"/>
-      <c r="K24" s="369"/>
-      <c r="L24" s="370"/>
-      <c r="M24" s="369"/>
-      <c r="N24" s="370"/>
+      <c r="C24" s="360"/>
+      <c r="D24" s="361"/>
+      <c r="E24" s="360"/>
+      <c r="F24" s="361"/>
+      <c r="G24" s="360"/>
+      <c r="H24" s="361"/>
+      <c r="I24" s="360"/>
+      <c r="J24" s="361"/>
+      <c r="K24" s="360"/>
+      <c r="L24" s="361"/>
+      <c r="M24" s="360"/>
+      <c r="N24" s="361"/>
     </row>
     <row r="25" spans="2:14" s="5" customFormat="1" ht="12.75" customHeight="1">
       <c r="B25" s="101"/>
-      <c r="C25" s="369"/>
-      <c r="D25" s="370"/>
-      <c r="E25" s="369"/>
-      <c r="F25" s="370"/>
-      <c r="G25" s="369"/>
-      <c r="H25" s="370"/>
-      <c r="I25" s="369"/>
-      <c r="J25" s="370"/>
-      <c r="K25" s="369"/>
-      <c r="L25" s="370"/>
-      <c r="M25" s="369"/>
-      <c r="N25" s="370"/>
+      <c r="C25" s="360"/>
+      <c r="D25" s="361"/>
+      <c r="E25" s="360"/>
+      <c r="F25" s="361"/>
+      <c r="G25" s="360"/>
+      <c r="H25" s="361"/>
+      <c r="I25" s="360"/>
+      <c r="J25" s="361"/>
+      <c r="K25" s="360"/>
+      <c r="L25" s="361"/>
+      <c r="M25" s="360"/>
+      <c r="N25" s="361"/>
     </row>
     <row r="26" spans="2:14" s="5" customFormat="1" ht="12.75" customHeight="1" thickBot="1">
       <c r="B26" s="104"/>
-      <c r="C26" s="413"/>
-      <c r="D26" s="414"/>
-      <c r="E26" s="413"/>
-      <c r="F26" s="414"/>
-      <c r="G26" s="413"/>
-      <c r="H26" s="414"/>
-      <c r="I26" s="413"/>
-      <c r="J26" s="414"/>
-      <c r="K26" s="413"/>
-      <c r="L26" s="414"/>
-      <c r="M26" s="413"/>
-      <c r="N26" s="414"/>
+      <c r="C26" s="406"/>
+      <c r="D26" s="407"/>
+      <c r="E26" s="406"/>
+      <c r="F26" s="407"/>
+      <c r="G26" s="406"/>
+      <c r="H26" s="407"/>
+      <c r="I26" s="406"/>
+      <c r="J26" s="407"/>
+      <c r="K26" s="406"/>
+      <c r="L26" s="407"/>
+      <c r="M26" s="406"/>
+      <c r="N26" s="407"/>
     </row>
     <row r="27" spans="2:14" s="5" customFormat="1" ht="12.75" customHeight="1">
       <c r="B27" s="103"/>
-      <c r="C27" s="409"/>
-      <c r="D27" s="410"/>
-      <c r="E27" s="409"/>
-      <c r="F27" s="410"/>
-      <c r="G27" s="409"/>
-      <c r="H27" s="410"/>
-      <c r="I27" s="409"/>
-      <c r="J27" s="410"/>
-      <c r="K27" s="409"/>
-      <c r="L27" s="410"/>
-      <c r="M27" s="409"/>
-      <c r="N27" s="410"/>
+      <c r="C27" s="408"/>
+      <c r="D27" s="409"/>
+      <c r="E27" s="408"/>
+      <c r="F27" s="409"/>
+      <c r="G27" s="408"/>
+      <c r="H27" s="409"/>
+      <c r="I27" s="408"/>
+      <c r="J27" s="409"/>
+      <c r="K27" s="408"/>
+      <c r="L27" s="409"/>
+      <c r="M27" s="408"/>
+      <c r="N27" s="409"/>
     </row>
     <row r="28" spans="2:14" s="5" customFormat="1" ht="12.75" customHeight="1">
       <c r="B28" s="101"/>
-      <c r="C28" s="369"/>
-      <c r="D28" s="370"/>
-      <c r="E28" s="369"/>
-      <c r="F28" s="370"/>
-      <c r="G28" s="369"/>
-      <c r="H28" s="370"/>
-      <c r="I28" s="369"/>
-      <c r="J28" s="370"/>
-      <c r="K28" s="369"/>
-      <c r="L28" s="370"/>
-      <c r="M28" s="369"/>
-      <c r="N28" s="370"/>
+      <c r="C28" s="360"/>
+      <c r="D28" s="361"/>
+      <c r="E28" s="360"/>
+      <c r="F28" s="361"/>
+      <c r="G28" s="360"/>
+      <c r="H28" s="361"/>
+      <c r="I28" s="360"/>
+      <c r="J28" s="361"/>
+      <c r="K28" s="360"/>
+      <c r="L28" s="361"/>
+      <c r="M28" s="360"/>
+      <c r="N28" s="361"/>
     </row>
     <row r="29" spans="2:14" s="5" customFormat="1" ht="12.75" customHeight="1">
       <c r="B29" s="101"/>
-      <c r="C29" s="369"/>
-      <c r="D29" s="370"/>
-      <c r="E29" s="369"/>
-      <c r="F29" s="370"/>
-      <c r="G29" s="369"/>
-      <c r="H29" s="370"/>
-      <c r="I29" s="369"/>
-      <c r="J29" s="370"/>
-      <c r="K29" s="369"/>
-      <c r="L29" s="370"/>
-      <c r="M29" s="369"/>
-      <c r="N29" s="370"/>
+      <c r="C29" s="360"/>
+      <c r="D29" s="361"/>
+      <c r="E29" s="360"/>
+      <c r="F29" s="361"/>
+      <c r="G29" s="360"/>
+      <c r="H29" s="361"/>
+      <c r="I29" s="360"/>
+      <c r="J29" s="361"/>
+      <c r="K29" s="360"/>
+      <c r="L29" s="361"/>
+      <c r="M29" s="360"/>
+      <c r="N29" s="361"/>
     </row>
     <row r="30" spans="2:14" s="5" customFormat="1" ht="12.75" customHeight="1">
       <c r="B30" s="101"/>
-      <c r="C30" s="369"/>
-      <c r="D30" s="370"/>
-      <c r="E30" s="369"/>
-      <c r="F30" s="370"/>
-      <c r="G30" s="369"/>
-      <c r="H30" s="370"/>
-      <c r="I30" s="369"/>
-      <c r="J30" s="370"/>
-      <c r="K30" s="369"/>
-      <c r="L30" s="370"/>
-      <c r="M30" s="369"/>
-      <c r="N30" s="370"/>
+      <c r="C30" s="360"/>
+      <c r="D30" s="361"/>
+      <c r="E30" s="360"/>
+      <c r="F30" s="361"/>
+      <c r="G30" s="360"/>
+      <c r="H30" s="361"/>
+      <c r="I30" s="360"/>
+      <c r="J30" s="361"/>
+      <c r="K30" s="360"/>
+      <c r="L30" s="361"/>
+      <c r="M30" s="360"/>
+      <c r="N30" s="361"/>
     </row>
     <row r="31" spans="2:14" s="5" customFormat="1" ht="12.75" customHeight="1" thickBot="1">
       <c r="B31" s="104"/>
-      <c r="C31" s="413"/>
-      <c r="D31" s="414"/>
-      <c r="E31" s="413"/>
-      <c r="F31" s="414"/>
-      <c r="G31" s="413"/>
-      <c r="H31" s="414"/>
-      <c r="I31" s="413"/>
-      <c r="J31" s="414"/>
-      <c r="K31" s="413"/>
-      <c r="L31" s="414"/>
-      <c r="M31" s="413"/>
-      <c r="N31" s="414"/>
+      <c r="C31" s="406"/>
+      <c r="D31" s="407"/>
+      <c r="E31" s="406"/>
+      <c r="F31" s="407"/>
+      <c r="G31" s="406"/>
+      <c r="H31" s="407"/>
+      <c r="I31" s="406"/>
+      <c r="J31" s="407"/>
+      <c r="K31" s="406"/>
+      <c r="L31" s="407"/>
+      <c r="M31" s="406"/>
+      <c r="N31" s="407"/>
     </row>
     <row r="32" spans="2:14" s="5" customFormat="1" ht="12.75" customHeight="1">
       <c r="B32" s="103"/>
-      <c r="C32" s="409"/>
-      <c r="D32" s="410"/>
-      <c r="E32" s="409"/>
-      <c r="F32" s="410"/>
-      <c r="G32" s="409"/>
-      <c r="H32" s="410"/>
-      <c r="I32" s="409"/>
-      <c r="J32" s="410"/>
-      <c r="K32" s="409"/>
-      <c r="L32" s="410"/>
-      <c r="M32" s="409"/>
-      <c r="N32" s="410"/>
+      <c r="C32" s="408"/>
+      <c r="D32" s="409"/>
+      <c r="E32" s="408"/>
+      <c r="F32" s="409"/>
+      <c r="G32" s="408"/>
+      <c r="H32" s="409"/>
+      <c r="I32" s="408"/>
+      <c r="J32" s="409"/>
+      <c r="K32" s="408"/>
+      <c r="L32" s="409"/>
+      <c r="M32" s="408"/>
+      <c r="N32" s="409"/>
     </row>
     <row r="33" spans="1:18" s="5" customFormat="1" ht="12.75" customHeight="1">
       <c r="B33" s="103"/>
-      <c r="C33" s="369"/>
-      <c r="D33" s="370"/>
-      <c r="E33" s="369"/>
-      <c r="F33" s="370"/>
-      <c r="G33" s="369"/>
-      <c r="H33" s="370"/>
-      <c r="I33" s="369"/>
-      <c r="J33" s="370"/>
-      <c r="K33" s="369"/>
-      <c r="L33" s="370"/>
-      <c r="M33" s="369"/>
-      <c r="N33" s="370"/>
+      <c r="C33" s="360"/>
+      <c r="D33" s="361"/>
+      <c r="E33" s="360"/>
+      <c r="F33" s="361"/>
+      <c r="G33" s="360"/>
+      <c r="H33" s="361"/>
+      <c r="I33" s="360"/>
+      <c r="J33" s="361"/>
+      <c r="K33" s="360"/>
+      <c r="L33" s="361"/>
+      <c r="M33" s="360"/>
+      <c r="N33" s="361"/>
     </row>
     <row r="34" spans="1:18" s="5" customFormat="1" ht="12.75" customHeight="1">
       <c r="B34" s="103"/>
-      <c r="C34" s="369"/>
-      <c r="D34" s="370"/>
-      <c r="E34" s="369"/>
-      <c r="F34" s="370"/>
-      <c r="G34" s="369"/>
-      <c r="H34" s="370"/>
-      <c r="I34" s="369"/>
-      <c r="J34" s="370"/>
-      <c r="K34" s="369"/>
-      <c r="L34" s="370"/>
-      <c r="M34" s="369"/>
-      <c r="N34" s="370"/>
+      <c r="C34" s="360"/>
+      <c r="D34" s="361"/>
+      <c r="E34" s="360"/>
+      <c r="F34" s="361"/>
+      <c r="G34" s="360"/>
+      <c r="H34" s="361"/>
+      <c r="I34" s="360"/>
+      <c r="J34" s="361"/>
+      <c r="K34" s="360"/>
+      <c r="L34" s="361"/>
+      <c r="M34" s="360"/>
+      <c r="N34" s="361"/>
     </row>
     <row r="35" spans="1:18" s="5" customFormat="1" ht="12.75" customHeight="1">
       <c r="B35" s="103"/>
-      <c r="C35" s="369"/>
-      <c r="D35" s="370"/>
-      <c r="E35" s="369"/>
-      <c r="F35" s="370"/>
-      <c r="G35" s="369"/>
-      <c r="H35" s="370"/>
-      <c r="I35" s="369"/>
-      <c r="J35" s="370"/>
-      <c r="K35" s="369"/>
-      <c r="L35" s="370"/>
-      <c r="M35" s="369"/>
-      <c r="N35" s="370"/>
+      <c r="C35" s="360"/>
+      <c r="D35" s="361"/>
+      <c r="E35" s="360"/>
+      <c r="F35" s="361"/>
+      <c r="G35" s="360"/>
+      <c r="H35" s="361"/>
+      <c r="I35" s="360"/>
+      <c r="J35" s="361"/>
+      <c r="K35" s="360"/>
+      <c r="L35" s="361"/>
+      <c r="M35" s="360"/>
+      <c r="N35" s="361"/>
     </row>
     <row r="36" spans="1:18" s="5" customFormat="1" ht="12.75" customHeight="1" thickBot="1">
       <c r="B36" s="104"/>
-      <c r="C36" s="413"/>
-      <c r="D36" s="414"/>
-      <c r="E36" s="413"/>
-      <c r="F36" s="414"/>
-      <c r="G36" s="413"/>
-      <c r="H36" s="414"/>
-      <c r="I36" s="413"/>
-      <c r="J36" s="414"/>
-      <c r="K36" s="413"/>
-      <c r="L36" s="414"/>
-      <c r="M36" s="413"/>
-      <c r="N36" s="414"/>
+      <c r="C36" s="406"/>
+      <c r="D36" s="407"/>
+      <c r="E36" s="406"/>
+      <c r="F36" s="407"/>
+      <c r="G36" s="406"/>
+      <c r="H36" s="407"/>
+      <c r="I36" s="406"/>
+      <c r="J36" s="407"/>
+      <c r="K36" s="406"/>
+      <c r="L36" s="407"/>
+      <c r="M36" s="406"/>
+      <c r="N36" s="407"/>
     </row>
     <row r="37" spans="1:18" s="5" customFormat="1" ht="12.75" customHeight="1">
       <c r="B37"/>
@@ -11776,10 +11776,10 @@
     </row>
     <row r="63" spans="1:18" s="113" customFormat="1" ht="11.25" customHeight="1">
       <c r="J63" s="176"/>
-      <c r="K63" s="415" t="s">
+      <c r="K63" s="410" t="s">
         <v>181</v>
       </c>
-      <c r="L63" s="415"/>
+      <c r="L63" s="410"/>
       <c r="M63" s="6"/>
       <c r="N63" s="133"/>
     </row>
@@ -11869,6 +11869,179 @@
     <row r="86" ht="9.5" customHeight="1"/>
   </sheetData>
   <mergeCells count="197">
+    <mergeCell ref="K5:L5"/>
+    <mergeCell ref="M5:N5"/>
+    <mergeCell ref="E5:F5"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="G5:H5"/>
+    <mergeCell ref="I5:J5"/>
+    <mergeCell ref="C7:D7"/>
+    <mergeCell ref="C8:D8"/>
+    <mergeCell ref="M6:N6"/>
+    <mergeCell ref="M7:N7"/>
+    <mergeCell ref="M8:N8"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="I6:J6"/>
+    <mergeCell ref="I7:J7"/>
+    <mergeCell ref="I8:J8"/>
+    <mergeCell ref="I9:J9"/>
+    <mergeCell ref="I10:J10"/>
+    <mergeCell ref="I11:J11"/>
+    <mergeCell ref="E11:F11"/>
+    <mergeCell ref="G11:H11"/>
+    <mergeCell ref="G6:H6"/>
+    <mergeCell ref="G7:H7"/>
+    <mergeCell ref="G8:H8"/>
+    <mergeCell ref="G9:H9"/>
+    <mergeCell ref="G10:H10"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="E18:F18"/>
+    <mergeCell ref="E19:F19"/>
+    <mergeCell ref="E20:F20"/>
+    <mergeCell ref="E21:F21"/>
+    <mergeCell ref="I14:J14"/>
+    <mergeCell ref="C34:D34"/>
+    <mergeCell ref="C35:D35"/>
+    <mergeCell ref="C36:D36"/>
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="C23:D23"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="C14:D14"/>
+    <mergeCell ref="E17:F17"/>
+    <mergeCell ref="C28:D28"/>
+    <mergeCell ref="C29:D29"/>
+    <mergeCell ref="C30:D30"/>
+    <mergeCell ref="C31:D31"/>
+    <mergeCell ref="C32:D32"/>
+    <mergeCell ref="C33:D33"/>
+    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="C24:D24"/>
+    <mergeCell ref="C25:D25"/>
+    <mergeCell ref="C26:D26"/>
+    <mergeCell ref="C27:D27"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="M11:N11"/>
+    <mergeCell ref="K9:L9"/>
+    <mergeCell ref="K10:L10"/>
+    <mergeCell ref="K11:L11"/>
+    <mergeCell ref="K6:L6"/>
+    <mergeCell ref="K7:L7"/>
+    <mergeCell ref="K8:L8"/>
+    <mergeCell ref="E14:F14"/>
+    <mergeCell ref="E15:F15"/>
+    <mergeCell ref="K12:L12"/>
+    <mergeCell ref="K13:L13"/>
+    <mergeCell ref="K14:L14"/>
+    <mergeCell ref="K15:L15"/>
+    <mergeCell ref="I12:J12"/>
+    <mergeCell ref="I13:J13"/>
+    <mergeCell ref="E6:F6"/>
+    <mergeCell ref="E7:F7"/>
+    <mergeCell ref="E8:F8"/>
+    <mergeCell ref="E9:F9"/>
+    <mergeCell ref="E10:F10"/>
+    <mergeCell ref="E12:F12"/>
+    <mergeCell ref="E13:F13"/>
+    <mergeCell ref="M9:N9"/>
+    <mergeCell ref="M10:N10"/>
+    <mergeCell ref="E36:F36"/>
+    <mergeCell ref="E16:F16"/>
+    <mergeCell ref="G12:H12"/>
+    <mergeCell ref="G13:H13"/>
+    <mergeCell ref="G14:H14"/>
+    <mergeCell ref="G15:H15"/>
+    <mergeCell ref="E24:F24"/>
+    <mergeCell ref="E25:F25"/>
+    <mergeCell ref="E26:F26"/>
+    <mergeCell ref="E27:F27"/>
+    <mergeCell ref="G36:H36"/>
+    <mergeCell ref="G24:H24"/>
+    <mergeCell ref="G25:H25"/>
+    <mergeCell ref="G26:H26"/>
+    <mergeCell ref="G27:H27"/>
+    <mergeCell ref="E30:F30"/>
+    <mergeCell ref="E31:F31"/>
+    <mergeCell ref="E32:F32"/>
+    <mergeCell ref="E33:F33"/>
+    <mergeCell ref="E34:F34"/>
+    <mergeCell ref="E35:F35"/>
+    <mergeCell ref="E28:F28"/>
+    <mergeCell ref="E29:F29"/>
+    <mergeCell ref="G30:H30"/>
+    <mergeCell ref="G31:H31"/>
+    <mergeCell ref="G32:H32"/>
+    <mergeCell ref="G33:H33"/>
+    <mergeCell ref="G34:H34"/>
+    <mergeCell ref="G35:H35"/>
+    <mergeCell ref="G16:H16"/>
+    <mergeCell ref="G17:H17"/>
+    <mergeCell ref="G28:H28"/>
+    <mergeCell ref="G29:H29"/>
+    <mergeCell ref="G18:H18"/>
+    <mergeCell ref="G19:H19"/>
+    <mergeCell ref="G20:H20"/>
+    <mergeCell ref="G21:H21"/>
+    <mergeCell ref="G22:H22"/>
+    <mergeCell ref="G23:H23"/>
+    <mergeCell ref="E22:F22"/>
+    <mergeCell ref="E23:F23"/>
+    <mergeCell ref="I30:J30"/>
+    <mergeCell ref="I31:J31"/>
+    <mergeCell ref="I32:J32"/>
+    <mergeCell ref="I33:J33"/>
+    <mergeCell ref="I35:J35"/>
+    <mergeCell ref="I15:J15"/>
+    <mergeCell ref="I16:J16"/>
+    <mergeCell ref="I17:J17"/>
+    <mergeCell ref="I36:J36"/>
+    <mergeCell ref="I24:J24"/>
+    <mergeCell ref="I25:J25"/>
+    <mergeCell ref="I26:J26"/>
+    <mergeCell ref="I27:J27"/>
+    <mergeCell ref="I28:J28"/>
+    <mergeCell ref="I29:J29"/>
+    <mergeCell ref="I34:J34"/>
+    <mergeCell ref="I18:J18"/>
+    <mergeCell ref="I19:J19"/>
+    <mergeCell ref="I20:J20"/>
+    <mergeCell ref="I21:J21"/>
+    <mergeCell ref="I22:J22"/>
+    <mergeCell ref="I23:J23"/>
+    <mergeCell ref="K18:L18"/>
+    <mergeCell ref="K19:L19"/>
+    <mergeCell ref="K20:L20"/>
+    <mergeCell ref="K21:L21"/>
+    <mergeCell ref="K22:L22"/>
+    <mergeCell ref="K23:L23"/>
+    <mergeCell ref="K36:L36"/>
+    <mergeCell ref="K63:L63"/>
+    <mergeCell ref="K16:L16"/>
+    <mergeCell ref="K17:L17"/>
+    <mergeCell ref="K24:L24"/>
+    <mergeCell ref="K25:L25"/>
+    <mergeCell ref="K26:L26"/>
+    <mergeCell ref="K27:L27"/>
+    <mergeCell ref="K28:L28"/>
+    <mergeCell ref="K29:L29"/>
+    <mergeCell ref="M31:N31"/>
+    <mergeCell ref="M32:N32"/>
+    <mergeCell ref="M33:N33"/>
+    <mergeCell ref="M34:N34"/>
+    <mergeCell ref="M35:N35"/>
+    <mergeCell ref="K30:L30"/>
+    <mergeCell ref="K31:L31"/>
+    <mergeCell ref="K32:L32"/>
+    <mergeCell ref="K33:L33"/>
+    <mergeCell ref="K34:L34"/>
+    <mergeCell ref="K35:L35"/>
     <mergeCell ref="B1:C2"/>
     <mergeCell ref="D1:F2"/>
     <mergeCell ref="G1:I2"/>
@@ -11893,179 +12066,6 @@
     <mergeCell ref="M16:N16"/>
     <mergeCell ref="M17:N17"/>
     <mergeCell ref="M30:N30"/>
-    <mergeCell ref="M31:N31"/>
-    <mergeCell ref="M32:N32"/>
-    <mergeCell ref="M33:N33"/>
-    <mergeCell ref="M34:N34"/>
-    <mergeCell ref="M35:N35"/>
-    <mergeCell ref="K30:L30"/>
-    <mergeCell ref="K31:L31"/>
-    <mergeCell ref="K32:L32"/>
-    <mergeCell ref="K33:L33"/>
-    <mergeCell ref="K34:L34"/>
-    <mergeCell ref="K35:L35"/>
-    <mergeCell ref="K18:L18"/>
-    <mergeCell ref="K19:L19"/>
-    <mergeCell ref="K20:L20"/>
-    <mergeCell ref="K21:L21"/>
-    <mergeCell ref="K22:L22"/>
-    <mergeCell ref="K23:L23"/>
-    <mergeCell ref="K36:L36"/>
-    <mergeCell ref="K63:L63"/>
-    <mergeCell ref="K16:L16"/>
-    <mergeCell ref="K17:L17"/>
-    <mergeCell ref="K24:L24"/>
-    <mergeCell ref="K25:L25"/>
-    <mergeCell ref="K26:L26"/>
-    <mergeCell ref="K27:L27"/>
-    <mergeCell ref="K28:L28"/>
-    <mergeCell ref="K29:L29"/>
-    <mergeCell ref="I30:J30"/>
-    <mergeCell ref="I31:J31"/>
-    <mergeCell ref="I32:J32"/>
-    <mergeCell ref="I33:J33"/>
-    <mergeCell ref="I35:J35"/>
-    <mergeCell ref="I15:J15"/>
-    <mergeCell ref="I16:J16"/>
-    <mergeCell ref="I17:J17"/>
-    <mergeCell ref="I36:J36"/>
-    <mergeCell ref="I24:J24"/>
-    <mergeCell ref="I25:J25"/>
-    <mergeCell ref="I26:J26"/>
-    <mergeCell ref="I27:J27"/>
-    <mergeCell ref="I28:J28"/>
-    <mergeCell ref="I29:J29"/>
-    <mergeCell ref="I34:J34"/>
-    <mergeCell ref="I18:J18"/>
-    <mergeCell ref="I19:J19"/>
-    <mergeCell ref="I20:J20"/>
-    <mergeCell ref="I21:J21"/>
-    <mergeCell ref="I22:J22"/>
-    <mergeCell ref="I23:J23"/>
-    <mergeCell ref="E29:F29"/>
-    <mergeCell ref="G30:H30"/>
-    <mergeCell ref="G31:H31"/>
-    <mergeCell ref="G32:H32"/>
-    <mergeCell ref="G33:H33"/>
-    <mergeCell ref="G34:H34"/>
-    <mergeCell ref="G35:H35"/>
-    <mergeCell ref="G16:H16"/>
-    <mergeCell ref="G17:H17"/>
-    <mergeCell ref="G28:H28"/>
-    <mergeCell ref="G29:H29"/>
-    <mergeCell ref="G18:H18"/>
-    <mergeCell ref="G19:H19"/>
-    <mergeCell ref="G20:H20"/>
-    <mergeCell ref="G21:H21"/>
-    <mergeCell ref="G22:H22"/>
-    <mergeCell ref="G23:H23"/>
-    <mergeCell ref="E22:F22"/>
-    <mergeCell ref="E23:F23"/>
-    <mergeCell ref="E36:F36"/>
-    <mergeCell ref="E16:F16"/>
-    <mergeCell ref="G12:H12"/>
-    <mergeCell ref="G13:H13"/>
-    <mergeCell ref="G14:H14"/>
-    <mergeCell ref="G15:H15"/>
-    <mergeCell ref="E24:F24"/>
-    <mergeCell ref="E25:F25"/>
-    <mergeCell ref="E26:F26"/>
-    <mergeCell ref="E27:F27"/>
-    <mergeCell ref="G36:H36"/>
-    <mergeCell ref="G24:H24"/>
-    <mergeCell ref="G25:H25"/>
-    <mergeCell ref="G26:H26"/>
-    <mergeCell ref="G27:H27"/>
-    <mergeCell ref="E30:F30"/>
-    <mergeCell ref="E31:F31"/>
-    <mergeCell ref="E32:F32"/>
-    <mergeCell ref="E33:F33"/>
-    <mergeCell ref="E34:F34"/>
-    <mergeCell ref="E35:F35"/>
-    <mergeCell ref="E28:F28"/>
-    <mergeCell ref="M11:N11"/>
-    <mergeCell ref="K9:L9"/>
-    <mergeCell ref="K10:L10"/>
-    <mergeCell ref="K11:L11"/>
-    <mergeCell ref="K6:L6"/>
-    <mergeCell ref="K7:L7"/>
-    <mergeCell ref="K8:L8"/>
-    <mergeCell ref="E14:F14"/>
-    <mergeCell ref="E15:F15"/>
-    <mergeCell ref="K12:L12"/>
-    <mergeCell ref="K13:L13"/>
-    <mergeCell ref="K14:L14"/>
-    <mergeCell ref="K15:L15"/>
-    <mergeCell ref="I12:J12"/>
-    <mergeCell ref="I13:J13"/>
-    <mergeCell ref="E6:F6"/>
-    <mergeCell ref="E7:F7"/>
-    <mergeCell ref="E8:F8"/>
-    <mergeCell ref="E9:F9"/>
-    <mergeCell ref="E10:F10"/>
-    <mergeCell ref="E12:F12"/>
-    <mergeCell ref="E13:F13"/>
-    <mergeCell ref="M9:N9"/>
-    <mergeCell ref="M10:N10"/>
-    <mergeCell ref="C34:D34"/>
-    <mergeCell ref="C35:D35"/>
-    <mergeCell ref="C36:D36"/>
-    <mergeCell ref="C22:D22"/>
-    <mergeCell ref="C23:D23"/>
-    <mergeCell ref="C13:D13"/>
-    <mergeCell ref="C14:D14"/>
-    <mergeCell ref="E17:F17"/>
-    <mergeCell ref="C28:D28"/>
-    <mergeCell ref="C29:D29"/>
-    <mergeCell ref="C30:D30"/>
-    <mergeCell ref="C31:D31"/>
-    <mergeCell ref="C32:D32"/>
-    <mergeCell ref="C33:D33"/>
-    <mergeCell ref="C15:D15"/>
-    <mergeCell ref="C24:D24"/>
-    <mergeCell ref="C25:D25"/>
-    <mergeCell ref="C26:D26"/>
-    <mergeCell ref="C27:D27"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="C17:D17"/>
-    <mergeCell ref="C18:D18"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="C20:D20"/>
-    <mergeCell ref="C21:D21"/>
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="I6:J6"/>
-    <mergeCell ref="I7:J7"/>
-    <mergeCell ref="I8:J8"/>
-    <mergeCell ref="I9:J9"/>
-    <mergeCell ref="I10:J10"/>
-    <mergeCell ref="I11:J11"/>
-    <mergeCell ref="E11:F11"/>
-    <mergeCell ref="G11:H11"/>
-    <mergeCell ref="G6:H6"/>
-    <mergeCell ref="G7:H7"/>
-    <mergeCell ref="G8:H8"/>
-    <mergeCell ref="G9:H9"/>
-    <mergeCell ref="G10:H10"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="C9:D9"/>
-    <mergeCell ref="C10:D10"/>
-    <mergeCell ref="E18:F18"/>
-    <mergeCell ref="E19:F19"/>
-    <mergeCell ref="E20:F20"/>
-    <mergeCell ref="E21:F21"/>
-    <mergeCell ref="I14:J14"/>
-    <mergeCell ref="K5:L5"/>
-    <mergeCell ref="M5:N5"/>
-    <mergeCell ref="E5:F5"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="G5:H5"/>
-    <mergeCell ref="I5:J5"/>
-    <mergeCell ref="C7:D7"/>
-    <mergeCell ref="C8:D8"/>
-    <mergeCell ref="M6:N6"/>
-    <mergeCell ref="M7:N7"/>
-    <mergeCell ref="M8:N8"/>
   </mergeCells>
   <phoneticPr fontId="0" type="noConversion"/>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
@@ -12076,7 +12076,7 @@
     <oddFooter>&amp;L&amp;"Helvetica,Regular"Data entry by: ____________________x000D_Date entered: ____________________&amp;C&amp;"Helvetica,Regular"Checked by: ______________________x000D_Date checked: ___________________&amp;R&amp;"Arial,Italic"&amp;6Updated &amp;D</oddFooter>
   </headerFooter>
   <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="http://schemas.microsoft.com/office/mac/excel/2008/main">
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="1" OnePage="0" WScale="0"/>
     </ext>
   </extLst>
@@ -12084,7 +12084,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" mc:Ignorable="mv" mc:PreserveAttributes="mv:*">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet3" enableFormatConditionsCalculation="0"/>
   <dimension ref="A1:R72"/>
   <sheetViews>
@@ -12092,7 +12092,7 @@
       <selection activeCell="J29" sqref="J29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="11"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="11" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="5.6640625" style="204" customWidth="1"/>
     <col min="2" max="2" width="7.6640625" style="204" customWidth="1"/>
@@ -12855,7 +12855,7 @@
     <oddFooter>&amp;L&amp;"Helvetica,Regular"&amp;9Data entry by: ____________________x000D_Date entered: _____________________x000D_&amp;C&amp;"Helvetica,Regular"&amp;9Checked by: ______________________x000D_Date checked: ____________________x000D_&amp;R&amp;6Updated: &amp;D</oddFooter>
   </headerFooter>
   <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="http://schemas.microsoft.com/office/mac/excel/2008/main">
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="1" OnePage="0" WScale="0"/>
     </ext>
   </extLst>
@@ -12863,22 +12863,22 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" mc:Ignorable="mv" mc:PreserveAttributes="mv:*">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet7" enableFormatConditionsCalculation="0">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:T36"/>
   <sheetViews>
-    <sheetView view="pageLayout" workbookViewId="0">
-      <selection activeCell="C28" sqref="C28"/>
+    <sheetView tabSelected="1" view="pageLayout" workbookViewId="0">
+      <selection activeCell="C27" sqref="C27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="2.6640625" customWidth="1"/>
     <col min="2" max="2" width="18" customWidth="1"/>
     <col min="3" max="3" width="34" customWidth="1"/>
-    <col min="4" max="4" width="7.33203125" customWidth="1"/>
+    <col min="4" max="4" width="8.6640625" customWidth="1"/>
     <col min="5" max="5" width="9" customWidth="1"/>
     <col min="6" max="6" width="5" customWidth="1"/>
     <col min="7" max="7" width="5.83203125" customWidth="1"/>
@@ -12930,38 +12930,38 @@
     <row r="4" spans="1:19" ht="14" customHeight="1" thickBot="1"/>
     <row r="5" spans="1:19" ht="15.75" customHeight="1" thickBot="1">
       <c r="B5" s="15"/>
-      <c r="C5" s="441"/>
-      <c r="D5" s="442"/>
-      <c r="E5" s="444" t="s">
+      <c r="C5" s="437"/>
+      <c r="D5" s="438"/>
+      <c r="E5" s="440" t="s">
         <v>200</v>
       </c>
-      <c r="F5" s="445"/>
-      <c r="G5" s="443" t="s">
+      <c r="F5" s="441"/>
+      <c r="G5" s="439" t="s">
         <v>201</v>
       </c>
-      <c r="H5" s="444"/>
-      <c r="I5" s="444"/>
-      <c r="J5" s="444"/>
-      <c r="K5" s="444"/>
-      <c r="L5" s="444"/>
-      <c r="M5" s="445"/>
-      <c r="N5" s="443" t="s">
+      <c r="H5" s="440"/>
+      <c r="I5" s="440"/>
+      <c r="J5" s="440"/>
+      <c r="K5" s="440"/>
+      <c r="L5" s="440"/>
+      <c r="M5" s="441"/>
+      <c r="N5" s="439" t="s">
         <v>202</v>
       </c>
-      <c r="O5" s="445"/>
+      <c r="O5" s="441"/>
       <c r="P5" s="226" t="s">
         <v>203</v>
       </c>
-      <c r="Q5" s="444" t="s">
+      <c r="Q5" s="440" t="s">
         <v>204</v>
       </c>
-      <c r="R5" s="444"/>
+      <c r="R5" s="440"/>
       <c r="S5" s="225" t="s">
         <v>192</v>
       </c>
     </row>
     <row r="6" spans="1:19" ht="24" customHeight="1">
-      <c r="A6" s="438" t="s">
+      <c r="A6" s="446" t="s">
         <v>177</v>
       </c>
       <c r="B6" s="126"/>
@@ -12984,7 +12984,7 @@
       <c r="S6" s="222"/>
     </row>
     <row r="7" spans="1:19" ht="24" customHeight="1">
-      <c r="A7" s="439"/>
+      <c r="A7" s="447"/>
       <c r="B7" s="138"/>
       <c r="C7" s="174"/>
       <c r="D7" s="94"/>
@@ -13005,7 +13005,7 @@
       <c r="S7" s="222"/>
     </row>
     <row r="8" spans="1:19" ht="24" customHeight="1">
-      <c r="A8" s="439"/>
+      <c r="A8" s="447"/>
       <c r="B8" s="138"/>
       <c r="C8" s="174"/>
       <c r="D8" s="94"/>
@@ -13026,7 +13026,7 @@
       <c r="S8" s="222"/>
     </row>
     <row r="9" spans="1:19" ht="24" customHeight="1">
-      <c r="A9" s="439"/>
+      <c r="A9" s="447"/>
       <c r="B9" s="138"/>
       <c r="C9" s="174"/>
       <c r="D9" s="94"/>
@@ -13072,47 +13072,47 @@
       <c r="B11" s="138"/>
       <c r="C11" s="166"/>
       <c r="D11" s="253"/>
-      <c r="E11" s="446"/>
-      <c r="F11" s="446"/>
-      <c r="G11" s="446"/>
-      <c r="H11" s="446"/>
-      <c r="I11" s="446"/>
-      <c r="J11" s="446"/>
-      <c r="K11" s="446"/>
-      <c r="L11" s="446"/>
-      <c r="M11" s="446"/>
-      <c r="N11" s="446"/>
-      <c r="O11" s="446"/>
+      <c r="E11" s="433"/>
+      <c r="F11" s="433"/>
+      <c r="G11" s="433"/>
+      <c r="H11" s="433"/>
+      <c r="I11" s="433"/>
+      <c r="J11" s="433"/>
+      <c r="K11" s="433"/>
+      <c r="L11" s="433"/>
+      <c r="M11" s="433"/>
+      <c r="N11" s="433"/>
+      <c r="O11" s="433"/>
       <c r="P11" s="224"/>
-      <c r="Q11" s="446"/>
-      <c r="R11" s="446"/>
+      <c r="Q11" s="433"/>
+      <c r="R11" s="433"/>
       <c r="S11" s="224"/>
     </row>
     <row r="12" spans="1:19" ht="24" customHeight="1">
-      <c r="A12" s="434" t="s">
+      <c r="A12" s="442" t="s">
         <v>198</v>
       </c>
       <c r="B12" s="4"/>
       <c r="C12" s="227"/>
       <c r="D12" s="94"/>
-      <c r="E12" s="433"/>
-      <c r="F12" s="433"/>
-      <c r="G12" s="433"/>
-      <c r="H12" s="433"/>
-      <c r="I12" s="433"/>
-      <c r="J12" s="433"/>
-      <c r="K12" s="433"/>
-      <c r="L12" s="433"/>
-      <c r="M12" s="433"/>
-      <c r="N12" s="433"/>
-      <c r="O12" s="433"/>
+      <c r="E12" s="434"/>
+      <c r="F12" s="434"/>
+      <c r="G12" s="434"/>
+      <c r="H12" s="434"/>
+      <c r="I12" s="434"/>
+      <c r="J12" s="434"/>
+      <c r="K12" s="434"/>
+      <c r="L12" s="434"/>
+      <c r="M12" s="434"/>
+      <c r="N12" s="434"/>
+      <c r="O12" s="434"/>
       <c r="P12" s="250"/>
-      <c r="Q12" s="433"/>
-      <c r="R12" s="433"/>
+      <c r="Q12" s="434"/>
+      <c r="R12" s="434"/>
       <c r="S12" s="250"/>
     </row>
     <row r="13" spans="1:19" ht="24" customHeight="1">
-      <c r="A13" s="435"/>
+      <c r="A13" s="443"/>
       <c r="B13" s="138"/>
       <c r="C13" s="174"/>
       <c r="D13" s="94"/>
@@ -13133,7 +13133,7 @@
       <c r="S13" s="222"/>
     </row>
     <row r="14" spans="1:19" ht="24" customHeight="1">
-      <c r="A14" s="436"/>
+      <c r="A14" s="444"/>
       <c r="B14" s="138"/>
       <c r="C14" s="174"/>
       <c r="D14" s="94"/>
@@ -13154,7 +13154,7 @@
       <c r="S14" s="222"/>
     </row>
     <row r="15" spans="1:19" ht="24" customHeight="1">
-      <c r="A15" s="436"/>
+      <c r="A15" s="444"/>
       <c r="B15" s="138"/>
       <c r="C15" s="174"/>
       <c r="D15" s="94"/>
@@ -13175,23 +13175,23 @@
       <c r="S15" s="222"/>
     </row>
     <row r="16" spans="1:19" ht="24" customHeight="1" thickBot="1">
-      <c r="A16" s="437"/>
+      <c r="A16" s="445"/>
       <c r="B16" s="138"/>
       <c r="C16" s="174"/>
-      <c r="E16" s="446"/>
-      <c r="F16" s="446"/>
-      <c r="G16" s="446"/>
-      <c r="H16" s="446"/>
-      <c r="I16" s="446"/>
-      <c r="J16" s="446"/>
-      <c r="K16" s="446"/>
-      <c r="L16" s="446"/>
-      <c r="M16" s="446"/>
-      <c r="N16" s="446"/>
-      <c r="O16" s="446"/>
+      <c r="E16" s="433"/>
+      <c r="F16" s="433"/>
+      <c r="G16" s="433"/>
+      <c r="H16" s="433"/>
+      <c r="I16" s="433"/>
+      <c r="J16" s="433"/>
+      <c r="K16" s="433"/>
+      <c r="L16" s="433"/>
+      <c r="M16" s="433"/>
+      <c r="N16" s="433"/>
+      <c r="O16" s="433"/>
       <c r="P16" s="224"/>
-      <c r="Q16" s="446"/>
-      <c r="R16" s="446"/>
+      <c r="Q16" s="433"/>
+      <c r="R16" s="433"/>
       <c r="S16" s="224"/>
     </row>
     <row r="17" spans="1:20" ht="24" customHeight="1">
@@ -13199,20 +13199,20 @@
       <c r="B17" s="252"/>
       <c r="C17" s="252"/>
       <c r="D17" s="95"/>
-      <c r="E17" s="433"/>
-      <c r="F17" s="433"/>
-      <c r="G17" s="433"/>
-      <c r="H17" s="433"/>
-      <c r="I17" s="433"/>
-      <c r="J17" s="433"/>
-      <c r="K17" s="433"/>
-      <c r="L17" s="433"/>
-      <c r="M17" s="433"/>
-      <c r="N17" s="433"/>
-      <c r="O17" s="433"/>
+      <c r="E17" s="434"/>
+      <c r="F17" s="434"/>
+      <c r="G17" s="434"/>
+      <c r="H17" s="434"/>
+      <c r="I17" s="434"/>
+      <c r="J17" s="434"/>
+      <c r="K17" s="434"/>
+      <c r="L17" s="434"/>
+      <c r="M17" s="434"/>
+      <c r="N17" s="434"/>
+      <c r="O17" s="434"/>
       <c r="P17" s="250"/>
-      <c r="Q17" s="433"/>
-      <c r="R17" s="433"/>
+      <c r="Q17" s="434"/>
+      <c r="R17" s="434"/>
       <c r="S17" s="250"/>
     </row>
     <row r="18" spans="1:20" ht="24" customHeight="1">
@@ -13220,25 +13220,25 @@
       <c r="B18" s="172"/>
       <c r="C18" s="173"/>
       <c r="D18" s="254"/>
-      <c r="E18" s="447"/>
-      <c r="F18" s="447"/>
-      <c r="G18" s="447"/>
-      <c r="H18" s="447"/>
-      <c r="I18" s="447"/>
-      <c r="J18" s="447"/>
-      <c r="K18" s="447"/>
-      <c r="L18" s="447"/>
-      <c r="M18" s="447"/>
-      <c r="N18" s="447"/>
-      <c r="O18" s="447"/>
+      <c r="E18" s="435"/>
+      <c r="F18" s="435"/>
+      <c r="G18" s="435"/>
+      <c r="H18" s="435"/>
+      <c r="I18" s="435"/>
+      <c r="J18" s="435"/>
+      <c r="K18" s="435"/>
+      <c r="L18" s="435"/>
+      <c r="M18" s="435"/>
+      <c r="N18" s="435"/>
+      <c r="O18" s="435"/>
       <c r="P18" s="223"/>
-      <c r="Q18" s="447"/>
-      <c r="R18" s="447"/>
+      <c r="Q18" s="435"/>
+      <c r="R18" s="435"/>
       <c r="S18" s="223"/>
       <c r="T18" s="10"/>
     </row>
     <row r="19" spans="1:20" ht="24" customHeight="1">
-      <c r="A19" s="439"/>
+      <c r="A19" s="447"/>
       <c r="B19" s="172"/>
       <c r="C19" s="173"/>
       <c r="D19" s="254"/>
@@ -13259,7 +13259,7 @@
       <c r="S19" s="222"/>
     </row>
     <row r="20" spans="1:20" ht="24" customHeight="1">
-      <c r="A20" s="439"/>
+      <c r="A20" s="447"/>
       <c r="B20" s="172"/>
       <c r="C20" s="173"/>
       <c r="D20" s="96"/>
@@ -13280,7 +13280,7 @@
       <c r="S20" s="222"/>
     </row>
     <row r="21" spans="1:20" ht="24" customHeight="1">
-      <c r="A21" s="439"/>
+      <c r="A21" s="447"/>
       <c r="B21" s="172"/>
       <c r="C21" s="173"/>
       <c r="D21" s="96"/>
@@ -13301,7 +13301,7 @@
       <c r="S21" s="222"/>
     </row>
     <row r="22" spans="1:20" ht="24" customHeight="1">
-      <c r="A22" s="439"/>
+      <c r="A22" s="447"/>
       <c r="B22" s="172"/>
       <c r="C22" s="173"/>
       <c r="D22" s="96"/>
@@ -13323,7 +13323,7 @@
       <c r="T22" s="10"/>
     </row>
     <row r="23" spans="1:20" ht="24" customHeight="1">
-      <c r="A23" s="439"/>
+      <c r="A23" s="447"/>
       <c r="B23" s="172"/>
       <c r="C23" s="173"/>
       <c r="D23" s="96"/>
@@ -13345,7 +13345,7 @@
       <c r="T23" s="10"/>
     </row>
     <row r="24" spans="1:20" ht="24" customHeight="1">
-      <c r="A24" s="439"/>
+      <c r="A24" s="447"/>
       <c r="B24" s="172"/>
       <c r="C24" s="173"/>
       <c r="D24" s="96"/>
@@ -13367,7 +13367,7 @@
       <c r="T24" s="10"/>
     </row>
     <row r="25" spans="1:20" ht="24" customHeight="1">
-      <c r="A25" s="439"/>
+      <c r="A25" s="447"/>
       <c r="B25" s="167"/>
       <c r="C25" s="168"/>
       <c r="D25" s="96"/>
@@ -13391,22 +13391,26 @@
     <row r="26" spans="1:20" ht="24" customHeight="1" thickBot="1">
       <c r="A26" s="175"/>
       <c r="B26" s="137"/>
-      <c r="C26" s="255"/>
-      <c r="D26" s="253"/>
-      <c r="E26" s="446"/>
-      <c r="F26" s="446"/>
-      <c r="G26" s="446"/>
-      <c r="H26" s="446"/>
-      <c r="I26" s="446"/>
-      <c r="J26" s="446"/>
-      <c r="K26" s="446"/>
-      <c r="L26" s="446"/>
-      <c r="M26" s="446"/>
-      <c r="N26" s="446"/>
-      <c r="O26" s="446"/>
+      <c r="C26" s="255" t="s">
+        <v>215</v>
+      </c>
+      <c r="D26" s="253" t="s">
+        <v>216</v>
+      </c>
+      <c r="E26" s="433"/>
+      <c r="F26" s="433"/>
+      <c r="G26" s="433"/>
+      <c r="H26" s="433"/>
+      <c r="I26" s="433"/>
+      <c r="J26" s="433"/>
+      <c r="K26" s="433"/>
+      <c r="L26" s="433"/>
+      <c r="M26" s="433"/>
+      <c r="N26" s="433"/>
+      <c r="O26" s="433"/>
       <c r="P26" s="224"/>
-      <c r="Q26" s="446"/>
-      <c r="R26" s="446"/>
+      <c r="Q26" s="433"/>
+      <c r="R26" s="433"/>
       <c r="S26" s="224"/>
     </row>
     <row r="27" spans="1:20" ht="15.75" customHeight="1">
@@ -13534,8 +13538,8 @@
       <c r="E34" s="249"/>
       <c r="F34" s="249"/>
       <c r="G34" s="249"/>
-      <c r="H34" s="440"/>
-      <c r="I34" s="440"/>
+      <c r="H34" s="436"/>
+      <c r="I34" s="436"/>
       <c r="J34" s="245"/>
       <c r="K34" s="245"/>
       <c r="L34" s="245"/>
@@ -13550,8 +13554,8 @@
       <c r="E35" s="249"/>
       <c r="F35" s="249"/>
       <c r="G35" s="249"/>
-      <c r="H35" s="440"/>
-      <c r="I35" s="440"/>
+      <c r="H35" s="436"/>
+      <c r="I35" s="436"/>
       <c r="J35" s="245"/>
       <c r="K35" s="245"/>
       <c r="L35" s="245"/>
@@ -13565,8 +13569,8 @@
       <c r="E36" s="249"/>
       <c r="F36" s="249"/>
       <c r="G36" s="249"/>
-      <c r="H36" s="440"/>
-      <c r="I36" s="440"/>
+      <c r="H36" s="436"/>
+      <c r="I36" s="436"/>
       <c r="J36" s="245"/>
       <c r="K36" s="245"/>
       <c r="L36" s="245"/>
@@ -13579,49 +13583,30 @@
     </row>
   </sheetData>
   <mergeCells count="94">
-    <mergeCell ref="G23:M23"/>
-    <mergeCell ref="G24:M24"/>
-    <mergeCell ref="G25:M25"/>
-    <mergeCell ref="G26:M26"/>
-    <mergeCell ref="G17:M17"/>
-    <mergeCell ref="G18:M18"/>
-    <mergeCell ref="G19:M19"/>
-    <mergeCell ref="G20:M20"/>
-    <mergeCell ref="G21:M21"/>
-    <mergeCell ref="G13:M13"/>
-    <mergeCell ref="G14:M14"/>
-    <mergeCell ref="G15:M15"/>
-    <mergeCell ref="G16:M16"/>
-    <mergeCell ref="G22:M22"/>
-    <mergeCell ref="E26:F26"/>
-    <mergeCell ref="E17:F17"/>
-    <mergeCell ref="E18:F18"/>
-    <mergeCell ref="E19:F19"/>
-    <mergeCell ref="E20:F20"/>
-    <mergeCell ref="E21:F21"/>
-    <mergeCell ref="E22:F22"/>
-    <mergeCell ref="N25:O25"/>
-    <mergeCell ref="Q24:R24"/>
-    <mergeCell ref="Q25:R25"/>
-    <mergeCell ref="Q18:R18"/>
-    <mergeCell ref="N26:O26"/>
-    <mergeCell ref="N18:O18"/>
-    <mergeCell ref="N19:O19"/>
-    <mergeCell ref="N20:O20"/>
-    <mergeCell ref="N21:O21"/>
-    <mergeCell ref="Q26:R26"/>
-    <mergeCell ref="N6:O6"/>
-    <mergeCell ref="N7:O7"/>
-    <mergeCell ref="N8:O8"/>
-    <mergeCell ref="N9:O9"/>
-    <mergeCell ref="N10:O10"/>
-    <mergeCell ref="N11:O11"/>
-    <mergeCell ref="Q19:R19"/>
-    <mergeCell ref="Q20:R20"/>
-    <mergeCell ref="Q21:R21"/>
-    <mergeCell ref="Q22:R22"/>
-    <mergeCell ref="Q23:R23"/>
-    <mergeCell ref="Q14:R14"/>
+    <mergeCell ref="G8:M8"/>
+    <mergeCell ref="G9:M9"/>
+    <mergeCell ref="Q13:R13"/>
+    <mergeCell ref="N12:O12"/>
+    <mergeCell ref="G6:M6"/>
+    <mergeCell ref="N13:O13"/>
+    <mergeCell ref="G10:M10"/>
+    <mergeCell ref="G11:M11"/>
+    <mergeCell ref="N5:O5"/>
+    <mergeCell ref="Q5:R5"/>
+    <mergeCell ref="E25:F25"/>
+    <mergeCell ref="G7:M7"/>
+    <mergeCell ref="A12:A16"/>
+    <mergeCell ref="A6:A9"/>
+    <mergeCell ref="A19:A21"/>
+    <mergeCell ref="A22:A25"/>
+    <mergeCell ref="E6:F6"/>
+    <mergeCell ref="E11:F11"/>
+    <mergeCell ref="E12:F12"/>
+    <mergeCell ref="E13:F13"/>
+    <mergeCell ref="E14:F14"/>
+    <mergeCell ref="E15:F15"/>
+    <mergeCell ref="E16:F16"/>
+    <mergeCell ref="G12:M12"/>
     <mergeCell ref="Q6:R6"/>
     <mergeCell ref="Q16:R16"/>
     <mergeCell ref="Q17:R17"/>
@@ -13638,41 +13623,60 @@
     <mergeCell ref="E8:F8"/>
     <mergeCell ref="E9:F9"/>
     <mergeCell ref="Q12:R12"/>
+    <mergeCell ref="N11:O11"/>
+    <mergeCell ref="Q19:R19"/>
+    <mergeCell ref="Q20:R20"/>
+    <mergeCell ref="Q21:R21"/>
+    <mergeCell ref="Q22:R22"/>
+    <mergeCell ref="Q14:R14"/>
     <mergeCell ref="Q11:R11"/>
-    <mergeCell ref="N5:O5"/>
-    <mergeCell ref="Q5:R5"/>
-    <mergeCell ref="E25:F25"/>
-    <mergeCell ref="G7:M7"/>
-    <mergeCell ref="A12:A16"/>
-    <mergeCell ref="A6:A9"/>
-    <mergeCell ref="A19:A21"/>
-    <mergeCell ref="A22:A25"/>
-    <mergeCell ref="E6:F6"/>
-    <mergeCell ref="E11:F11"/>
-    <mergeCell ref="E12:F12"/>
-    <mergeCell ref="E13:F13"/>
-    <mergeCell ref="E14:F14"/>
-    <mergeCell ref="E15:F15"/>
-    <mergeCell ref="E16:F16"/>
-    <mergeCell ref="G12:M12"/>
-    <mergeCell ref="G8:M8"/>
-    <mergeCell ref="G9:M9"/>
-    <mergeCell ref="Q13:R13"/>
-    <mergeCell ref="N12:O12"/>
-    <mergeCell ref="G6:M6"/>
-    <mergeCell ref="E23:F23"/>
-    <mergeCell ref="E24:F24"/>
     <mergeCell ref="Q15:R15"/>
     <mergeCell ref="N22:O22"/>
-    <mergeCell ref="N23:O23"/>
-    <mergeCell ref="N24:O24"/>
     <mergeCell ref="N17:O17"/>
     <mergeCell ref="N14:O14"/>
     <mergeCell ref="N15:O15"/>
     <mergeCell ref="N16:O16"/>
-    <mergeCell ref="N13:O13"/>
-    <mergeCell ref="G10:M10"/>
-    <mergeCell ref="G11:M11"/>
+    <mergeCell ref="N6:O6"/>
+    <mergeCell ref="N7:O7"/>
+    <mergeCell ref="N8:O8"/>
+    <mergeCell ref="N9:O9"/>
+    <mergeCell ref="N10:O10"/>
+    <mergeCell ref="N25:O25"/>
+    <mergeCell ref="Q24:R24"/>
+    <mergeCell ref="Q25:R25"/>
+    <mergeCell ref="Q18:R18"/>
+    <mergeCell ref="N26:O26"/>
+    <mergeCell ref="N18:O18"/>
+    <mergeCell ref="N19:O19"/>
+    <mergeCell ref="N20:O20"/>
+    <mergeCell ref="N21:O21"/>
+    <mergeCell ref="Q26:R26"/>
+    <mergeCell ref="Q23:R23"/>
+    <mergeCell ref="N23:O23"/>
+    <mergeCell ref="N24:O24"/>
+    <mergeCell ref="E26:F26"/>
+    <mergeCell ref="E17:F17"/>
+    <mergeCell ref="E18:F18"/>
+    <mergeCell ref="E19:F19"/>
+    <mergeCell ref="E20:F20"/>
+    <mergeCell ref="E21:F21"/>
+    <mergeCell ref="E22:F22"/>
+    <mergeCell ref="E23:F23"/>
+    <mergeCell ref="E24:F24"/>
+    <mergeCell ref="G13:M13"/>
+    <mergeCell ref="G14:M14"/>
+    <mergeCell ref="G15:M15"/>
+    <mergeCell ref="G16:M16"/>
+    <mergeCell ref="G22:M22"/>
+    <mergeCell ref="G23:M23"/>
+    <mergeCell ref="G24:M24"/>
+    <mergeCell ref="G25:M25"/>
+    <mergeCell ref="G26:M26"/>
+    <mergeCell ref="G17:M17"/>
+    <mergeCell ref="G18:M18"/>
+    <mergeCell ref="G19:M19"/>
+    <mergeCell ref="G20:M20"/>
+    <mergeCell ref="G21:M21"/>
   </mergeCells>
   <phoneticPr fontId="0" type="noConversion"/>
   <pageMargins left="1.03" right="0.75" top="0.51" bottom="0.22" header="0" footer="0"/>
@@ -13682,7 +13686,7 @@
     <oddFooter>&amp;L&amp;"Helvetica,Regular"Data entry by: ____________________x000D_Date entered: ____________________&amp;C&amp;"Helvetica,Regular"Checked by: ______________________x000D_Date checked: ___________________&amp;RUpdated: &amp;D</oddFooter>
   </headerFooter>
   <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="http://schemas.microsoft.com/office/mac/excel/2008/main">
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="1" OnePage="0" WScale="0"/>
     </ext>
   </extLst>
@@ -13690,17 +13694,17 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" mc:Ignorable="mv" mc:PreserveAttributes="mv:*">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr enableFormatConditionsCalculation="0">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:Q66"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageLayout" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
+    <sheetView view="pageLayout" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
       <selection activeCell="G5" sqref="G5:I5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="5.5" defaultRowHeight="15.75" customHeight="1"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="5.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="3.33203125" style="1" customWidth="1"/>
     <col min="2" max="2" width="10.6640625" style="1" customWidth="1"/>
@@ -13804,11 +13808,11 @@
       <c r="F5" s="184" t="s">
         <v>24</v>
       </c>
-      <c r="G5" s="453" t="s">
+      <c r="G5" s="451" t="s">
         <v>0</v>
       </c>
-      <c r="H5" s="454"/>
-      <c r="I5" s="454"/>
+      <c r="H5" s="452"/>
+      <c r="I5" s="452"/>
       <c r="J5" s="140"/>
       <c r="L5" s="140"/>
     </row>
@@ -14398,13 +14402,13 @@
   </mergeCells>
   <phoneticPr fontId="43" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="0.74" bottom="0.5" header="0.25" footer="0.2"/>
-  <pageSetup scale="95" orientation="portrait"/>
+  <pageSetup scale="96" orientation="portrait"/>
   <headerFooter>
     <oddHeader>&amp;L&amp;"Lucida Grande,Regular"KEEN OBSERVATIONAL SURVEY DATA_x000D_Region_x000D_Lab PI&amp;C&amp;"Arial,Bold"&amp;14Subsurface Kelp _x000D_Morphometrics&amp;R&amp;"Helvetica,Regular"Scanned by: _____________________x000D_Date scanned: __________________</oddHeader>
     <oddFooter>&amp;L&amp;"Helvetica,Regular"Data entry by: ____________________x000D_Date entered: ____________________&amp;C&amp;"Helvetica,Regular"Checked by: ______________________x000D_Date checked: ___________________&amp;R&amp;8Updated: &amp;D</oddFooter>
   </headerFooter>
   <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="http://schemas.microsoft.com/office/mac/excel/2008/main">
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="1" OnePage="0" WScale="0"/>
     </ext>
   </extLst>
@@ -14412,7 +14416,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" mc:Ignorable="mv" mc:PreserveAttributes="mv:*">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr enableFormatConditionsCalculation="0">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
@@ -14422,7 +14426,7 @@
       <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="5.5" defaultRowHeight="12"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="5.5" defaultRowHeight="12" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="3.33203125" style="1" customWidth="1"/>
     <col min="2" max="2" width="4.83203125" style="1" customWidth="1"/>
@@ -14517,7 +14521,7 @@
       <c r="O3" s="184" t="s">
         <v>176</v>
       </c>
-      <c r="P3" s="451" t="s">
+      <c r="P3" s="453" t="s">
         <v>174</v>
       </c>
     </row>
@@ -14541,7 +14545,7 @@
       <c r="M4" s="340"/>
       <c r="N4" s="340"/>
       <c r="O4" s="341"/>
-      <c r="P4" s="452"/>
+      <c r="P4" s="454"/>
     </row>
     <row r="5" spans="1:16" ht="15.75" customHeight="1">
       <c r="A5" s="338" t="s">
@@ -14563,7 +14567,7 @@
       <c r="M5" s="144"/>
       <c r="N5" s="144"/>
       <c r="O5" s="343"/>
-      <c r="P5" s="452"/>
+      <c r="P5" s="454"/>
     </row>
     <row r="6" spans="1:16" ht="15.75" customHeight="1">
       <c r="A6" s="338" t="s">
@@ -14585,7 +14589,7 @@
       <c r="M6" s="144"/>
       <c r="N6" s="144"/>
       <c r="O6" s="343"/>
-      <c r="P6" s="452"/>
+      <c r="P6" s="454"/>
     </row>
     <row r="7" spans="1:16" ht="15.75" customHeight="1">
       <c r="A7" s="338" t="s">
@@ -14607,7 +14611,7 @@
       <c r="M7" s="144"/>
       <c r="N7" s="144"/>
       <c r="O7" s="343"/>
-      <c r="P7" s="452"/>
+      <c r="P7" s="454"/>
     </row>
     <row r="8" spans="1:16" ht="15.75" customHeight="1">
       <c r="A8" s="338" t="s">
@@ -14629,7 +14633,7 @@
       <c r="M8" s="144"/>
       <c r="N8" s="144"/>
       <c r="O8" s="343"/>
-      <c r="P8" s="452"/>
+      <c r="P8" s="454"/>
     </row>
     <row r="9" spans="1:16" ht="15.75" customHeight="1">
       <c r="A9" s="338" t="s">
@@ -14651,7 +14655,7 @@
       <c r="M9" s="144"/>
       <c r="N9" s="144"/>
       <c r="O9" s="343"/>
-      <c r="P9" s="452"/>
+      <c r="P9" s="454"/>
     </row>
     <row r="10" spans="1:16" ht="15.75" customHeight="1">
       <c r="A10" s="338" t="s">
@@ -14673,7 +14677,7 @@
       <c r="M10" s="144"/>
       <c r="N10" s="144"/>
       <c r="O10" s="343"/>
-      <c r="P10" s="452"/>
+      <c r="P10" s="454"/>
     </row>
     <row r="11" spans="1:16" ht="15.75" customHeight="1">
       <c r="A11" s="338" t="s">
@@ -14695,7 +14699,7 @@
       <c r="M11" s="144"/>
       <c r="N11" s="144"/>
       <c r="O11" s="343"/>
-      <c r="P11" s="452"/>
+      <c r="P11" s="454"/>
     </row>
     <row r="12" spans="1:16" ht="15.75" customHeight="1">
       <c r="A12" s="338" t="s">
@@ -14717,7 +14721,7 @@
       <c r="M12" s="144"/>
       <c r="N12" s="144"/>
       <c r="O12" s="343"/>
-      <c r="P12" s="452"/>
+      <c r="P12" s="454"/>
     </row>
     <row r="13" spans="1:16" ht="15.75" customHeight="1">
       <c r="A13" s="338" t="s">
@@ -14739,7 +14743,7 @@
       <c r="M13" s="144"/>
       <c r="N13" s="144"/>
       <c r="O13" s="343"/>
-      <c r="P13" s="452"/>
+      <c r="P13" s="454"/>
     </row>
     <row r="14" spans="1:16" ht="15.75" customHeight="1">
       <c r="A14" s="338" t="s">
@@ -14761,7 +14765,7 @@
       <c r="M14" s="144"/>
       <c r="N14" s="144"/>
       <c r="O14" s="343"/>
-      <c r="P14" s="452"/>
+      <c r="P14" s="454"/>
     </row>
     <row r="15" spans="1:16" ht="15.75" customHeight="1">
       <c r="A15" s="338" t="s">
@@ -14783,7 +14787,7 @@
       <c r="M15" s="139"/>
       <c r="N15" s="139"/>
       <c r="O15" s="345"/>
-      <c r="P15" s="452"/>
+      <c r="P15" s="454"/>
     </row>
     <row r="16" spans="1:16" ht="15.75" customHeight="1">
       <c r="A16" s="338" t="s">
@@ -14805,7 +14809,7 @@
       <c r="M16" s="139"/>
       <c r="N16" s="139"/>
       <c r="O16" s="345"/>
-      <c r="P16" s="452"/>
+      <c r="P16" s="454"/>
     </row>
     <row r="17" spans="1:16" ht="15.75" customHeight="1">
       <c r="A17" s="338" t="s">
@@ -14827,7 +14831,7 @@
       <c r="M17" s="139"/>
       <c r="N17" s="139"/>
       <c r="O17" s="345"/>
-      <c r="P17" s="452"/>
+      <c r="P17" s="454"/>
     </row>
     <row r="18" spans="1:16" ht="15.75" customHeight="1">
       <c r="A18" s="338" t="s">
@@ -14849,7 +14853,7 @@
       <c r="M18" s="139"/>
       <c r="N18" s="139"/>
       <c r="O18" s="345"/>
-      <c r="P18" s="452"/>
+      <c r="P18" s="454"/>
     </row>
     <row r="19" spans="1:16" ht="15.75" customHeight="1">
       <c r="A19" s="338" t="s">
@@ -14871,7 +14875,7 @@
       <c r="M19" s="139"/>
       <c r="N19" s="139"/>
       <c r="O19" s="345"/>
-      <c r="P19" s="452"/>
+      <c r="P19" s="454"/>
     </row>
     <row r="20" spans="1:16" ht="15.75" customHeight="1">
       <c r="A20" s="338" t="s">
@@ -14893,7 +14897,7 @@
       <c r="M20" s="139"/>
       <c r="N20" s="139"/>
       <c r="O20" s="345"/>
-      <c r="P20" s="452"/>
+      <c r="P20" s="454"/>
     </row>
     <row r="21" spans="1:16" ht="15.75" customHeight="1">
       <c r="A21" s="338" t="s">
@@ -14915,7 +14919,7 @@
       <c r="M21" s="139"/>
       <c r="N21" s="139"/>
       <c r="O21" s="345"/>
-      <c r="P21" s="452"/>
+      <c r="P21" s="454"/>
     </row>
     <row r="22" spans="1:16" ht="15.75" customHeight="1">
       <c r="A22" s="338" t="s">
@@ -14937,7 +14941,7 @@
       <c r="M22" s="139"/>
       <c r="N22" s="139"/>
       <c r="O22" s="345"/>
-      <c r="P22" s="452"/>
+      <c r="P22" s="454"/>
     </row>
     <row r="23" spans="1:16" ht="15.75" customHeight="1">
       <c r="A23" s="338" t="s">
@@ -14959,7 +14963,7 @@
       <c r="M23" s="139"/>
       <c r="N23" s="139"/>
       <c r="O23" s="345"/>
-      <c r="P23" s="452"/>
+      <c r="P23" s="454"/>
     </row>
     <row r="24" spans="1:16" ht="15.75" customHeight="1">
       <c r="A24" s="338" t="s">
@@ -14981,7 +14985,7 @@
       <c r="M24" s="139"/>
       <c r="N24" s="139"/>
       <c r="O24" s="345"/>
-      <c r="P24" s="452"/>
+      <c r="P24" s="454"/>
     </row>
     <row r="25" spans="1:16" ht="15.75" customHeight="1">
       <c r="A25" s="338" t="s">
@@ -15003,7 +15007,7 @@
       <c r="M25" s="139"/>
       <c r="N25" s="139"/>
       <c r="O25" s="345"/>
-      <c r="P25" s="452"/>
+      <c r="P25" s="454"/>
     </row>
     <row r="26" spans="1:16" ht="15.75" customHeight="1">
       <c r="A26" s="338" t="s">
@@ -15025,7 +15029,7 @@
       <c r="M26" s="139"/>
       <c r="N26" s="139"/>
       <c r="O26" s="345"/>
-      <c r="P26" s="452"/>
+      <c r="P26" s="454"/>
     </row>
     <row r="27" spans="1:16" ht="15.75" customHeight="1">
       <c r="A27" s="338" t="s">
@@ -15046,7 +15050,7 @@
       <c r="M27" s="146"/>
       <c r="N27" s="146"/>
       <c r="O27" s="346"/>
-      <c r="P27" s="452"/>
+      <c r="P27" s="454"/>
     </row>
     <row r="28" spans="1:16" ht="15.75" customHeight="1">
       <c r="A28" s="338" t="s">
@@ -15067,7 +15071,7 @@
       <c r="M28" s="348"/>
       <c r="N28" s="348"/>
       <c r="O28" s="346"/>
-      <c r="P28" s="452"/>
+      <c r="P28" s="454"/>
     </row>
     <row r="29" spans="1:16" ht="15.75" customHeight="1">
       <c r="A29" s="338" t="s">
@@ -15088,7 +15092,7 @@
       <c r="M29" s="348"/>
       <c r="N29" s="348"/>
       <c r="O29" s="346"/>
-      <c r="P29" s="452"/>
+      <c r="P29" s="454"/>
     </row>
     <row r="30" spans="1:16" ht="15.75" customHeight="1">
       <c r="A30" s="338" t="s">
@@ -15109,7 +15113,7 @@
       <c r="M30" s="328"/>
       <c r="N30" s="328"/>
       <c r="O30" s="346"/>
-      <c r="P30" s="452"/>
+      <c r="P30" s="454"/>
     </row>
     <row r="31" spans="1:16" ht="15.75" customHeight="1">
       <c r="A31" s="338" t="s">
@@ -15130,7 +15134,7 @@
       <c r="M31" s="328"/>
       <c r="N31" s="328"/>
       <c r="O31" s="346"/>
-      <c r="P31" s="452"/>
+      <c r="P31" s="454"/>
     </row>
     <row r="32" spans="1:16" customFormat="1" ht="15.75" customHeight="1">
       <c r="A32" s="338" t="s">
@@ -15152,7 +15156,7 @@
       <c r="M32" s="328"/>
       <c r="N32" s="328"/>
       <c r="O32" s="329"/>
-      <c r="P32" s="452"/>
+      <c r="P32" s="454"/>
     </row>
     <row r="33" spans="1:16" customFormat="1" ht="15.75" customHeight="1">
       <c r="A33" s="338" t="s">
@@ -15174,7 +15178,7 @@
       <c r="M33" s="328"/>
       <c r="N33" s="328"/>
       <c r="O33" s="329"/>
-      <c r="P33" s="452"/>
+      <c r="P33" s="454"/>
     </row>
     <row r="34" spans="1:16" customFormat="1" ht="15.75" customHeight="1">
       <c r="A34" s="338" t="s">
@@ -15196,7 +15200,7 @@
       <c r="M34" s="328"/>
       <c r="N34" s="328"/>
       <c r="O34" s="329"/>
-      <c r="P34" s="452"/>
+      <c r="P34" s="454"/>
     </row>
     <row r="35" spans="1:16" customFormat="1" ht="15.75" customHeight="1">
       <c r="A35" s="338" t="s">
@@ -15218,7 +15222,7 @@
       <c r="M35" s="348"/>
       <c r="N35" s="348"/>
       <c r="O35" s="329"/>
-      <c r="P35" s="452"/>
+      <c r="P35" s="454"/>
     </row>
     <row r="36" spans="1:16" ht="15.75" customHeight="1">
       <c r="A36" s="338" t="s">
@@ -15239,7 +15243,7 @@
       <c r="M36" s="328"/>
       <c r="N36" s="328"/>
       <c r="O36" s="346"/>
-      <c r="P36" s="452"/>
+      <c r="P36" s="454"/>
     </row>
     <row r="37" spans="1:16" ht="15.75" customHeight="1">
       <c r="A37" s="338" t="s">
@@ -15260,7 +15264,7 @@
       <c r="M37" s="328"/>
       <c r="N37" s="328"/>
       <c r="O37" s="346"/>
-      <c r="P37" s="452"/>
+      <c r="P37" s="454"/>
     </row>
     <row r="38" spans="1:16" ht="15.75" customHeight="1">
       <c r="A38" s="338" t="s">
@@ -15281,7 +15285,7 @@
       <c r="M38" s="328"/>
       <c r="N38" s="328"/>
       <c r="O38" s="346"/>
-      <c r="P38" s="452"/>
+      <c r="P38" s="454"/>
     </row>
     <row r="39" spans="1:16" ht="15.75" customHeight="1">
       <c r="A39" s="338" t="s">
@@ -15302,7 +15306,7 @@
       <c r="M39" s="328"/>
       <c r="N39" s="328"/>
       <c r="O39" s="346"/>
-      <c r="P39" s="452"/>
+      <c r="P39" s="454"/>
     </row>
     <row r="40" spans="1:16" ht="15.75" customHeight="1">
       <c r="A40" s="338" t="s">
@@ -15323,7 +15327,7 @@
       <c r="M40" s="328"/>
       <c r="N40" s="328"/>
       <c r="O40" s="346"/>
-      <c r="P40" s="452"/>
+      <c r="P40" s="454"/>
     </row>
     <row r="41" spans="1:16" ht="15.75" customHeight="1">
       <c r="A41" s="338" t="s">
@@ -15344,7 +15348,7 @@
       <c r="M41" s="328"/>
       <c r="N41" s="328"/>
       <c r="O41" s="346"/>
-      <c r="P41" s="452"/>
+      <c r="P41" s="454"/>
     </row>
     <row r="42" spans="1:16" ht="15.75" customHeight="1">
       <c r="A42" s="338" t="s">
@@ -15365,7 +15369,7 @@
       <c r="M42" s="328"/>
       <c r="N42" s="328"/>
       <c r="O42" s="346"/>
-      <c r="P42" s="452"/>
+      <c r="P42" s="454"/>
     </row>
     <row r="43" spans="1:16" ht="15.75" customHeight="1">
       <c r="A43" s="338" t="s">
@@ -15386,7 +15390,7 @@
       <c r="M43" s="146"/>
       <c r="N43" s="146"/>
       <c r="O43" s="346"/>
-      <c r="P43" s="452"/>
+      <c r="P43" s="454"/>
     </row>
     <row r="44" spans="1:16" ht="15.75" customHeight="1">
       <c r="A44" s="338" t="s">
@@ -15407,7 +15411,7 @@
       <c r="M44" s="352"/>
       <c r="N44" s="352"/>
       <c r="O44" s="346"/>
-      <c r="P44" s="452"/>
+      <c r="P44" s="454"/>
     </row>
     <row r="45" spans="1:16" ht="15.75" customHeight="1" thickBot="1">
       <c r="A45" s="353" t="s">
@@ -15428,7 +15432,7 @@
       <c r="M45" s="355"/>
       <c r="N45" s="355"/>
       <c r="O45" s="356"/>
-      <c r="P45" s="452"/>
+      <c r="P45" s="454"/>
     </row>
     <row r="46" spans="1:16" ht="15.75" customHeight="1">
       <c r="A46" s="357"/>
@@ -15479,7 +15483,7 @@
     <oddFooter>&amp;LData entry by: ____________________x000D_Date entered: ____________________&amp;CChecked by: ______________________x000D_Date checked: ___________________&amp;RUpdated &amp;D</oddFooter>
   </headerFooter>
   <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="http://schemas.microsoft.com/office/mac/excel/2008/main">
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="1" OnePage="0" WScale="0"/>
     </ext>
   </extLst>
